--- a/Workbooks/EN/Robots.xlsx
+++ b/Workbooks/EN/Robots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED05D2E-3942-4187-B3CB-84E11BA9A3C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABA3151-1C4B-46F0-BF0F-6976203FA349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,12 +93,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,28 +125,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="31">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -152,11 +180,41 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -174,11 +232,71 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -187,13 +305,47 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -319,78 +471,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -405,21 +485,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J101" headerRowDxfId="18" dataDxfId="7">
   <autoFilter ref="A1:J101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="Organization Unit ID"/>
-    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="Organization Unit Name" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="Robot ID" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Robot Name" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="Machine ID" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Machine Name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Environments" dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Hosting Type" totalsRowLabel="Total"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Robot Type" totalsRowFunction="count" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Username" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="Organization Unit ID" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="Organization Unit Name" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="Robot ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Robot Name" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="Machine ID" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Machine Name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Environments" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Hosting Type" totalsRowLabel="Total" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Robot Type" totalsRowFunction="count" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Username" dataDxfId="8"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -427,34 +507,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I93" totalsRowShown="0">
   <autoFilter ref="A1:I93" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="Hosting Type" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="Hosting Type" dataDxfId="30"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Robot Name"/>
-    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="Machine Name" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="Machine Name" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Robot Type"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Username" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="Password" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Unit Name" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Robot ID" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Username" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="Password" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Unit Name" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Robot ID" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="4"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H101" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H101" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="A1:H101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="Organization Unit Name"/>
     <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="Robot ID"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Robot Name" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="Machine Name" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="Robot Type" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="Username" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="Result"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Robot Name" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="Machine Name" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="Robot Type" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="Username" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="Result" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -462,13 +542,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E101" totalsRowShown="0">
   <autoFilter ref="A1:E101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="Organization Unit ID" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="Organization Unit Name" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="Robot ID" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="Organization Unit ID" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="Organization Unit Name" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="Robot ID" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Robot Name" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -744,12 +824,12 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.453125" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7265625" style="1" customWidth="1"/>
@@ -763,645 +843,1236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E40" s="1"/>
-      <c r="F40" s="2"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E41" s="1"/>
-      <c r="F41" s="2"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E42" s="1"/>
-      <c r="F42" s="2"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E43" s="1"/>
-      <c r="F43" s="2"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E45" s="1"/>
-      <c r="F45" s="2"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E46" s="1"/>
-      <c r="F46" s="2"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E47" s="1"/>
-      <c r="F47" s="2"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E48" s="1"/>
-      <c r="F48" s="2"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E49" s="1"/>
-      <c r="F49" s="2"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E50" s="1"/>
-      <c r="F50" s="2"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E51" s="1"/>
-      <c r="F51" s="2"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E52" s="1"/>
-      <c r="F52" s="2"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E53" s="1"/>
-      <c r="F53" s="2"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E54" s="1"/>
-      <c r="F54" s="2"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E55" s="1"/>
-      <c r="F55" s="2"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E56" s="1"/>
-      <c r="F56" s="2"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E57" s="1"/>
-      <c r="F57" s="2"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E58" s="1"/>
-      <c r="F58" s="2"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E59" s="1"/>
-      <c r="F59" s="2"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E60" s="1"/>
-      <c r="F60" s="2"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E61" s="1"/>
-      <c r="F61" s="2"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E62" s="1"/>
-      <c r="F62" s="2"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E63" s="1"/>
-      <c r="F63" s="2"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E64" s="1"/>
-      <c r="F64" s="2"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E65" s="1"/>
-      <c r="F65" s="2"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E66" s="1"/>
-      <c r="F66" s="2"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E67" s="1"/>
-      <c r="F67" s="2"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E68" s="1"/>
-      <c r="F68" s="2"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E69" s="1"/>
-      <c r="F69" s="2"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E70" s="1"/>
-      <c r="F70" s="2"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E71" s="1"/>
-      <c r="F71" s="2"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E72" s="1"/>
-      <c r="F72" s="2"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E73" s="1"/>
-      <c r="F73" s="2"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E74" s="1"/>
-      <c r="F74" s="2"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E75" s="1"/>
-      <c r="F75" s="2"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E76" s="1"/>
-      <c r="F76" s="2"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E77" s="1"/>
-      <c r="F77" s="2"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E78" s="1"/>
-      <c r="F78" s="2"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E79" s="1"/>
-      <c r="F79" s="2"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E80" s="1"/>
-      <c r="F80" s="2"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E81" s="1"/>
-      <c r="F81" s="2"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E82" s="1"/>
-      <c r="F82" s="2"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E83" s="1"/>
-      <c r="F83" s="2"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E84" s="1"/>
-      <c r="F84" s="2"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E85" s="1"/>
-      <c r="F85" s="2"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E86" s="1"/>
-      <c r="F86" s="2"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E87" s="1"/>
-      <c r="F87" s="2"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E88" s="1"/>
-      <c r="F88" s="2"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E89" s="1"/>
-      <c r="F89" s="2"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E90" s="1"/>
-      <c r="F90" s="2"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E91" s="1"/>
-      <c r="F91" s="2"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E92" s="1"/>
-      <c r="F92" s="2"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E93" s="1"/>
-      <c r="F93" s="2"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E94" s="1"/>
-      <c r="F94" s="2"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E95" s="1"/>
-      <c r="F95" s="2"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E96" s="1"/>
-      <c r="F96" s="2"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E97" s="1"/>
-      <c r="F97" s="2"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E98" s="1"/>
-      <c r="F98" s="2"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E99" s="1"/>
-      <c r="F99" s="2"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E100" s="1"/>
-      <c r="F100" s="2"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E101" s="1"/>
-      <c r="F101" s="2"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="3"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="12"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="12"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="12"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="9"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="12"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="9"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="12"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="12"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="9"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="12"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="12"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="12"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="9"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="12"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="12"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="12"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="9"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="12"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="9"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="12"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="9"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="12"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="9"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="12"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="9"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="12"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="9"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="12"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="9"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="12"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="12"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="9"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="12"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="9"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="12"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="9"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="12"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="9"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="12"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="9"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="12"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="9"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="12"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="9"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="12"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="9"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="12"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="12"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="9"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="12"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" s="9"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="12"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" s="9"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="12"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" s="9"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="12"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96" s="9"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="12"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="9"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="12"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="9"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="12"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="9"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="12"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="9"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="12"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101" s="9"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1431,7 +2102,7 @@
     <col min="1" max="1" width="13.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
@@ -1460,10 +2131,10 @@
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1471,734 +2142,734 @@
       <c r="C2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D63" s="1"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D65" s="1"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D73" s="1"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D74" s="1"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D75" s="1"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D76" s="1"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D77" s="1"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D78" s="1"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D81" s="1"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D82" s="1"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D84" s="1"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D85" s="1"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D88" s="1"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D90" s="1"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D92" s="1"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D93" s="1"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2260,531 +2931,631 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="2"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H69" s="9"/>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H72" s="9"/>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H73" s="9"/>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H74" s="9"/>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H75" s="9"/>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H81" s="9"/>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H82" s="9"/>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H83" s="9"/>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H84" s="9"/>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H85" s="9"/>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H86" s="9"/>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H87" s="9"/>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H88" s="9"/>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H89" s="9"/>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H90" s="9"/>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H91" s="9"/>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H92" s="9"/>
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H93" s="9"/>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H94" s="9"/>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H95" s="9"/>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H96" s="9"/>
+    </row>
+    <row r="97" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H97" s="9"/>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H98" s="9"/>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H99" s="9"/>
+    </row>
+    <row r="100" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H100" s="9"/>
+    </row>
+    <row r="101" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="2"/>
+      <c r="H101" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2829,640 +3600,640 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2"/>
-      <c r="B2" s="4"/>
+      <c r="B2" s="3"/>
       <c r="C2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
       <c r="C3"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
       <c r="C5"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
       <c r="C6"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="C7"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3"/>
       <c r="C8"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
       <c r="C10"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
       <c r="C11"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="E72" s="12"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="E78" s="12"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="E79" s="12"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="E80" s="12"/>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="E81" s="12"/>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="E82" s="12"/>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="E86" s="12"/>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="E87" s="12"/>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="E88" s="12"/>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="E90" s="12"/>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="12"/>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="12"/>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="E94" s="12"/>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="E95" s="12"/>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="E96" s="12"/>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="E97" s="12"/>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="E98" s="12"/>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="E99" s="12"/>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="E100" s="12"/>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="E101" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Workbooks/EN/Robots.xlsx
+++ b/Workbooks/EN/Robots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D77500D-F48D-400D-BE6E-A0C23596BAF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EF6F5D-E40E-4ECF-94AC-B00EE0CC14D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -715,6 +715,17 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2"/>
@@ -964,48 +975,6 @@
         </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1304,10 +1273,21 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1327,23 +1307,43 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1359,19 +1359,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="23" dataDxfId="37" totalsRowDxfId="22" headerRowBorderDxfId="34" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="37" dataDxfId="35" totalsRowDxfId="33" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <autoFilter ref="A1:J201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="Organization Unit ID" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="Organization Unit Name" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="Robot ID" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Robot Name" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="Machine ID" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Machine Name" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Environments" dataDxfId="27"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Hosting Type" totalsRowLabel="Total" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Robot Type" totalsRowFunction="count" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Username" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="Organization Unit ID" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="Organization Unit Name" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="Robot ID" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Robot Name" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="Machine ID" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Machine Name" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Environments" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Hosting Type" totalsRowLabel="Total" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Robot Type" totalsRowFunction="count" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Username" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1381,22 +1381,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="Hosting Type" dataDxfId="21"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Robot Name" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="Machine Name" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Robot Type" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Username" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="Password" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Unit Name" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Robot ID" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="Hosting Type" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Robot Name" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="Machine Name" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Robot Type" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Username" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="Password" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Unit Name" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Robot ID" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="Organization Unit Name" dataDxfId="12"/>
@@ -4149,8 +4149,20 @@
       <c r="J201" s="26"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J102:J1048576 H2:H201" xr:uid="{315666C5-0397-470F-A633-C919BAAA5B0E}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J102:J1048576" xr:uid="{315666C5-0397-470F-A633-C919BAAA5B0E}">
+      <formula1>"Standard,Floating"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Organization Unit ID" error="Organization Unit ID must be greater than 0." sqref="A2:A1048576" xr:uid="{EB4D44DE-701B-4DE0-8AA9-ED0F71004C11}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot ID" error="Robot ID must be an integer greater than 0." sqref="C2:C1048576" xr:uid="{798DF543-3479-4E59-8B18-BA9EFAD7C84B}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Machine ID" error="Machine ID must be an integer greater than 0." sqref="E2:E1048576" xr:uid="{A31B391A-6808-4A68-9143-1DC1D6E5CB59}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Hosting Type" error="Please select a supported Hosting Type." sqref="H2:H1048576" xr:uid="{86919392-48EB-4711-B7E8-F09F11610940}">
       <formula1>"Standard,Floating"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6414,12 +6426,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94:B1048576" xr:uid="{F44B3D79-6E85-4752-80E5-E171C2D51A7E}">
       <formula1>"Text,Bool,Integer,Credential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A1048576 A2" xr:uid="{3B11C794-A5DC-485E-88B4-884B1F78DCF8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Hosting Type" error="Please select a supported Hosting Type." sqref="A2:A1048576" xr:uid="{20653D52-B8E9-4EEB-9B45-38F0B8088F8B}">
       <formula1>"Standard,Floating"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot ID" error="Robot ID must be an integer greater than 0." sqref="H2:H1048576" xr:uid="{773DCA53-A523-4EAE-BE9E-0532D00C69A3}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8477,9 +8492,12 @@
       <c r="H201" s="13"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C1048576" xr:uid="{63D27801-1665-4DF8-9454-ACFF98F813D0}">
       <formula1>"Text,Bool,Integer,Credential"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot ID" error="Robot ID must be an integer greater than 0." sqref="B2:B3 B5:B1048576 B4" xr:uid="{D3B15A95-AD57-4A2B-8FC8-86531852B545}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9925,6 +9943,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Organization Unit ID" error="Organization Unit ID must be an integer greater than 0." sqref="A3:A1048576 A2" xr:uid="{DF8E9523-4D28-4340-95FC-5F803802D086}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot ID" error="Robot ID must be an integer greater than 0." sqref="C2:C1048576" xr:uid="{C7C4282B-C2E4-415D-845E-597B528D4128}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Workbooks/EN/Robots.xlsx
+++ b/Workbooks/EN/Robots.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\UsingFolders\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DF4190-D3AC-4EEF-B6AB-CAFC293909B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63AEA30-5105-48FF-ACDC-A60D3A890D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,10 +68,10 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Folder ID</t>
+    <t>Classic Folder ID</t>
   </si>
   <si>
-    <t>Folder Name</t>
+    <t>Classic Folder Name</t>
   </si>
 </sst>
 </file>
@@ -1362,8 +1362,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="37" dataDxfId="35" totalsRowDxfId="33" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <autoFilter ref="A1:J201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="Folder ID" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="Folder Name" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="Classic Folder ID" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="Classic Folder Name" dataDxfId="31"/>
     <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="Robot ID" dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Robot Name" dataDxfId="29"/>
     <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="Machine ID" dataDxfId="28"/>
@@ -1387,7 +1387,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Robot Type" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Username" dataDxfId="18"/>
     <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="Password" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Folder Name" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Classic Folder Name" dataDxfId="16"/>
     <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Robot ID" dataDxfId="15"/>
     <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="14"/>
   </tableColumns>
@@ -1399,7 +1399,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="Folder Name" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="Classic Folder Name" dataDxfId="12"/>
     <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="Robot ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Robot Name" dataDxfId="10"/>
     <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="Machine Name" dataDxfId="9"/>
@@ -1416,8 +1416,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="Folder ID" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="Folder Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="Classic Folder ID" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="Classic Folder Name" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="Robot ID" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Robot Name" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="0"/>
@@ -1697,7 +1697,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.453125" style="2" customWidth="1"/>
@@ -4153,7 +4153,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J102:J1048576" xr:uid="{315666C5-0397-470F-A633-C919BAAA5B0E}">
       <formula1>"Standard,Floating"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Folder ID" error="Folder ID must be greater than 0." sqref="A2:A1048576" xr:uid="{EB4D44DE-701B-4DE0-8AA9-ED0F71004C11}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Classic Folder ID" error="Classic Folder ID must be greater than 0." sqref="A2:A1048576" xr:uid="{EB4D44DE-701B-4DE0-8AA9-ED0F71004C11}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot ID" error="Robot ID must be an integer greater than 0." sqref="C2:C1048576" xr:uid="{798DF543-3479-4E59-8B18-BA9EFAD7C84B}">
@@ -8518,7 +8518,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.54296875" customWidth="1"/>
@@ -9947,7 +9947,7 @@
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot ID" error="Robot ID must be an integer greater than 0." sqref="C2:C1048576" xr:uid="{C7C4282B-C2E4-415D-845E-597B528D4128}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Folder ID" error="Folder ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{00952F5E-E2B0-48F6-94E0-800C6CFF2B78}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Classic Folder ID" error="Classic Folder ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{00952F5E-E2B0-48F6-94E0-800C6CFF2B78}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/Workbooks/EN/Robots.xlsx
+++ b/Workbooks/EN/Robots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708F47F1-D7ED-4748-8C9E-9E4435F6572A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F13C3A3-0288-4526-AB80-D030D10599DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,12 +341,6 @@
   </cellStyles>
   <dxfs count="43">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -475,15 +469,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -671,7 +657,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -875,45 +869,10 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1154,6 +1113,19 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
@@ -1170,10 +1142,38 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1190,68 +1190,68 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="30" dataDxfId="28" totalsRowDxfId="29" headerRowBorderDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="42" dataDxfId="40" totalsRowDxfId="38" headerRowBorderDxfId="41" tableBorderDxfId="39">
   <autoFilter ref="A1:J201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="Classic Folder ID" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="Classic Folder Name" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="Robot ID" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Robot Name" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="Machine ID" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Machine Name" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Environments" dataDxfId="34"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Hosting Type" totalsRowLabel="Total" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Robot Type" totalsRowFunction="count" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Username" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="Classic Folder ID" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="Classic Folder Name" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="Robot ID" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Robot Name" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="Machine ID" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Machine Name" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Environments" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Hosting Type" totalsRowLabel="Total" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Robot Type" totalsRowFunction="count" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Username" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="Hosting Type" dataDxfId="27"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Robot Name" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="Machine Name" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Robot Type" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Username" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="Password" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Classic Folder Name" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Robot ID" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="Hosting Type" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Robot Name" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="Machine Name" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Robot Type" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Username" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="Password" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Classic Folder Name" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Robot ID" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="Classic Folder Name" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="Robot ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Robot Name" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="Machine Name" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="Robot Type" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="Username" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="Result" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="Classic Folder Name" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="Robot ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Robot Name" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="Machine Name" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="Robot Type" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="Username" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="Result" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="Classic Folder ID" dataDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="Classic Folder Name" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="Robot ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Robot Name" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="Classic Folder ID" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="Classic Folder Name" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="Robot ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Robot Name" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1522,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3984,7 +3984,7 @@
       <c r="J201" s="20"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J102:J1048576" xr:uid="{315666C5-0397-470F-A633-C919BAAA5B0E}">
       <formula1>"Standard,Floating"</formula1>
     </dataValidation>
@@ -3999,6 +3999,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Hosting Type" error="Please select a supported Hosting Type." sqref="H2:H1048576" xr:uid="{86919392-48EB-4711-B7E8-F09F11610940}">
       <formula1>"Standard,Floating"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot Type" error="Please select a supported Robot Type." sqref="I2:I1048576" xr:uid="{B29B73DC-4066-4F73-A06D-ECE1441D4F6E}">
+      <formula1>"NonProduction,Attended,Unattended,Studio,Development,StudioX,Headless,StudioPro,TestAutomation"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6263,7 +6266,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94:B1048576" xr:uid="{F44B3D79-6E85-4752-80E5-E171C2D51A7E}">
       <formula1>"Text,Bool,Integer,Credential"</formula1>
     </dataValidation>
@@ -6272,6 +6275,9 @@
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot ID" error="Robot ID must be an integer greater than 0." sqref="H2:H1048576" xr:uid="{773DCA53-A523-4EAE-BE9E-0532D00C69A3}">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot Type" error="Please select a supported Robot Type." sqref="D2:D1048576" xr:uid="{FA465BF8-725B-4CC5-8B54-DC5C741C30AB}">
+      <formula1>"NonProduction,Attended,Unattended,Studio,Development,StudioX,Headless,StudioPro,TestAutomation"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8331,12 +8337,15 @@
       <c r="H201" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C1048576" xr:uid="{63D27801-1665-4DF8-9454-ACFF98F813D0}">
       <formula1>"Text,Bool,Integer,Credential"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot ID" error="Robot ID must be an integer greater than 0." sqref="B2:B3 B5:B1048576 B4" xr:uid="{D3B15A95-AD57-4A2B-8FC8-86531852B545}">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot Type" error="Please select a supported Robot Type." sqref="E2:E1048576" xr:uid="{ABAAF9C0-22AA-4AE1-B3E0-5ECAAA3715E5}">
+      <formula1>"NonProduction,Attended,Unattended,Studio,Development,StudioX,Headless,StudioPro,TestAutomation"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workbooks/EN/Robots.xlsx
+++ b/Workbooks/EN/Robots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F13C3A3-0288-4526-AB80-D030D10599DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6DF1C8-63F8-403D-AA7F-C10D68840912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/EN/Robots.xlsx
+++ b/Workbooks/EN/Robots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6DF1C8-63F8-403D-AA7F-C10D68840912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642823E6-78ED-4C10-B2E2-86412D8C99F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1522,22 +1522,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="25.7265625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7265625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.7265625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.81640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="8.7265625" style="2"/>
@@ -4017,21 +4015,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="25.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="2" customWidth="1"/>
+    <col min="5" max="7" width="25.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="45.7265625" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -6296,16 +6291,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.36328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="43.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="25.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="45.7265625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="2"/>
   </cols>
@@ -8364,13 +8358,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43.90625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="25.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>

--- a/Workbooks/EN/Robots.xlsx
+++ b/Workbooks/EN/Robots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642823E6-78ED-4C10-B2E2-86412D8C99F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B401225C-BF2E-4FCC-8B9C-659799E0C648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4015,7 +4015,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Workbooks/EN/Robots.xlsx
+++ b/Workbooks/EN/Robots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B401225C-BF2E-4FCC-8B9C-659799E0C648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ED3C3C-39FC-438B-AFBF-968E3C01E807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -113,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -260,11 +260,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -335,11 +361,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="43">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -713,31 +770,6 @@
         </top>
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
         </bottom>
       </border>
       <protection locked="1" hidden="0"/>
@@ -1212,46 +1244,46 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
+    <tableColumn id="10" xr3:uid="{82AA4CBE-9BAD-48BE-8F36-82CAC11AD1A8}" name="Classic Folder Name" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="Hosting Type" dataDxfId="25"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Robot Name" dataDxfId="24"/>
     <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="Machine Name" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Robot Type" dataDxfId="22"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Username" dataDxfId="21"/>
     <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="Password" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Classic Folder Name" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Robot ID" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Robot ID" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="Classic Folder Name" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="Robot ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Robot Name" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="Machine Name" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="Robot Type" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="Username" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="Result" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="Classic Folder Name" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="Robot ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Robot Name" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="Machine Name" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="Robot Type" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="Username" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="Result" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="Classic Folder ID" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="Classic Folder Name" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="Robot ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Robot Name" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="Classic Folder ID" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="Classic Folder Name" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="Robot ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Robot Name" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1522,34 +1554,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="25.7265625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="15.7265625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.81640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="2"/>
-    <col min="14" max="14" width="20.54296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="25.7109375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="2"/>
+    <col min="14" max="14" width="20.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="2"/>
     <col min="16" max="16" width="18" style="2" customWidth="1"/>
-    <col min="17" max="17" width="26.453125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.7265625" style="2"/>
-    <col min="19" max="19" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7265625" style="2"/>
+    <col min="17" max="17" width="26.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="2"/>
+    <col min="19" max="19" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
@@ -1581,7 +1613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1593,7 +1625,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1605,7 +1637,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1617,7 +1649,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1629,7 +1661,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1641,7 +1673,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1653,7 +1685,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1665,7 +1697,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1677,7 +1709,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1689,7 +1721,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1701,7 +1733,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1713,7 +1745,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1725,7 +1757,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1737,7 +1769,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1749,7 +1781,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1761,7 +1793,7 @@
       <c r="I16" s="16"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1773,7 +1805,7 @@
       <c r="I17" s="16"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1785,7 +1817,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1797,7 +1829,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1809,7 +1841,7 @@
       <c r="I20" s="16"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1821,7 +1853,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1833,7 +1865,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1845,7 +1877,7 @@
       <c r="I23" s="16"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1857,7 +1889,7 @@
       <c r="I24" s="16"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1869,7 +1901,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1881,7 +1913,7 @@
       <c r="I26" s="16"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1893,7 +1925,7 @@
       <c r="I27" s="16"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1905,7 +1937,7 @@
       <c r="I28" s="16"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1917,7 +1949,7 @@
       <c r="I29" s="16"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1929,7 +1961,7 @@
       <c r="I30" s="16"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1941,7 +1973,7 @@
       <c r="I31" s="16"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1953,7 +1985,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1965,7 +1997,7 @@
       <c r="I33" s="16"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1977,7 +2009,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1989,7 +2021,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2001,7 +2033,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2013,7 +2045,7 @@
       <c r="I37" s="16"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2025,7 +2057,7 @@
       <c r="I38" s="16"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2037,7 +2069,7 @@
       <c r="I39" s="16"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2049,7 +2081,7 @@
       <c r="I40" s="16"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2061,7 +2093,7 @@
       <c r="I41" s="16"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2073,7 +2105,7 @@
       <c r="I42" s="16"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2085,7 +2117,7 @@
       <c r="I43" s="16"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2097,7 +2129,7 @@
       <c r="I44" s="16"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2109,7 +2141,7 @@
       <c r="I45" s="16"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2121,7 +2153,7 @@
       <c r="I46" s="16"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2133,7 +2165,7 @@
       <c r="I47" s="16"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2145,7 +2177,7 @@
       <c r="I48" s="16"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2157,7 +2189,7 @@
       <c r="I49" s="16"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2169,7 +2201,7 @@
       <c r="I50" s="16"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2181,7 +2213,7 @@
       <c r="I51" s="16"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2193,7 +2225,7 @@
       <c r="I52" s="16"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2205,7 +2237,7 @@
       <c r="I53" s="16"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2217,7 +2249,7 @@
       <c r="I54" s="16"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2229,7 +2261,7 @@
       <c r="I55" s="16"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2241,7 +2273,7 @@
       <c r="I56" s="16"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2253,7 +2285,7 @@
       <c r="I57" s="16"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2265,7 +2297,7 @@
       <c r="I58" s="16"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2277,7 +2309,7 @@
       <c r="I59" s="16"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2289,7 +2321,7 @@
       <c r="I60" s="16"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2301,7 +2333,7 @@
       <c r="I61" s="16"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2313,7 +2345,7 @@
       <c r="I62" s="16"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2325,7 +2357,7 @@
       <c r="I63" s="16"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2337,7 +2369,7 @@
       <c r="I64" s="16"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2349,7 +2381,7 @@
       <c r="I65" s="16"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2361,7 +2393,7 @@
       <c r="I66" s="16"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2373,7 +2405,7 @@
       <c r="I67" s="16"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2385,7 +2417,7 @@
       <c r="I68" s="16"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2397,7 +2429,7 @@
       <c r="I69" s="16"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2409,7 +2441,7 @@
       <c r="I70" s="16"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2421,7 +2453,7 @@
       <c r="I71" s="16"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2433,7 +2465,7 @@
       <c r="I72" s="16"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2445,7 +2477,7 @@
       <c r="I73" s="16"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2457,7 +2489,7 @@
       <c r="I74" s="16"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2469,7 +2501,7 @@
       <c r="I75" s="16"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2481,7 +2513,7 @@
       <c r="I76" s="16"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2493,7 +2525,7 @@
       <c r="I77" s="16"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2505,7 +2537,7 @@
       <c r="I78" s="16"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2517,7 +2549,7 @@
       <c r="I79" s="16"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2529,7 +2561,7 @@
       <c r="I80" s="16"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2541,7 +2573,7 @@
       <c r="I81" s="16"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2553,7 +2585,7 @@
       <c r="I82" s="16"/>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2565,7 +2597,7 @@
       <c r="I83" s="16"/>
       <c r="J83" s="7"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2577,7 +2609,7 @@
       <c r="I84" s="16"/>
       <c r="J84" s="7"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2589,7 +2621,7 @@
       <c r="I85" s="16"/>
       <c r="J85" s="7"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2601,7 +2633,7 @@
       <c r="I86" s="16"/>
       <c r="J86" s="7"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2613,7 +2645,7 @@
       <c r="I87" s="16"/>
       <c r="J87" s="7"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2625,7 +2657,7 @@
       <c r="I88" s="16"/>
       <c r="J88" s="7"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2637,7 +2669,7 @@
       <c r="I89" s="16"/>
       <c r="J89" s="7"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2649,7 +2681,7 @@
       <c r="I90" s="16"/>
       <c r="J90" s="7"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2661,7 +2693,7 @@
       <c r="I91" s="16"/>
       <c r="J91" s="7"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -2673,7 +2705,7 @@
       <c r="I92" s="16"/>
       <c r="J92" s="7"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2685,7 +2717,7 @@
       <c r="I93" s="16"/>
       <c r="J93" s="7"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -2697,7 +2729,7 @@
       <c r="I94" s="16"/>
       <c r="J94" s="7"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -2709,7 +2741,7 @@
       <c r="I95" s="16"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -2721,7 +2753,7 @@
       <c r="I96" s="16"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -2733,7 +2765,7 @@
       <c r="I97" s="16"/>
       <c r="J97" s="7"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -2745,7 +2777,7 @@
       <c r="I98" s="16"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -2757,7 +2789,7 @@
       <c r="I99" s="16"/>
       <c r="J99" s="7"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -2769,7 +2801,7 @@
       <c r="I100" s="16"/>
       <c r="J100" s="7"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2781,7 +2813,7 @@
       <c r="I101" s="16"/>
       <c r="J101" s="7"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -2793,7 +2825,7 @@
       <c r="I102" s="17"/>
       <c r="J102" s="7"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -2805,7 +2837,7 @@
       <c r="I103" s="17"/>
       <c r="J103" s="7"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -2817,7 +2849,7 @@
       <c r="I104" s="17"/>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="15"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -2829,7 +2861,7 @@
       <c r="I105" s="17"/>
       <c r="J105" s="7"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -2841,7 +2873,7 @@
       <c r="I106" s="17"/>
       <c r="J106" s="7"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -2853,7 +2885,7 @@
       <c r="I107" s="17"/>
       <c r="J107" s="7"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -2865,7 +2897,7 @@
       <c r="I108" s="17"/>
       <c r="J108" s="7"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -2877,7 +2909,7 @@
       <c r="I109" s="17"/>
       <c r="J109" s="7"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -2889,7 +2921,7 @@
       <c r="I110" s="17"/>
       <c r="J110" s="7"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -2901,7 +2933,7 @@
       <c r="I111" s="17"/>
       <c r="J111" s="7"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -2913,7 +2945,7 @@
       <c r="I112" s="17"/>
       <c r="J112" s="7"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -2925,7 +2957,7 @@
       <c r="I113" s="17"/>
       <c r="J113" s="7"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -2937,7 +2969,7 @@
       <c r="I114" s="17"/>
       <c r="J114" s="7"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -2949,7 +2981,7 @@
       <c r="I115" s="17"/>
       <c r="J115" s="7"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -2961,7 +2993,7 @@
       <c r="I116" s="17"/>
       <c r="J116" s="7"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -2973,7 +3005,7 @@
       <c r="I117" s="17"/>
       <c r="J117" s="7"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -2985,7 +3017,7 @@
       <c r="I118" s="17"/>
       <c r="J118" s="7"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -2997,7 +3029,7 @@
       <c r="I119" s="17"/>
       <c r="J119" s="7"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3009,7 +3041,7 @@
       <c r="I120" s="17"/>
       <c r="J120" s="7"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="15"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3021,7 +3053,7 @@
       <c r="I121" s="17"/>
       <c r="J121" s="7"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3033,7 +3065,7 @@
       <c r="I122" s="17"/>
       <c r="J122" s="7"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3045,7 +3077,7 @@
       <c r="I123" s="17"/>
       <c r="J123" s="7"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3057,7 +3089,7 @@
       <c r="I124" s="17"/>
       <c r="J124" s="7"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3069,7 +3101,7 @@
       <c r="I125" s="17"/>
       <c r="J125" s="7"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3081,7 +3113,7 @@
       <c r="I126" s="17"/>
       <c r="J126" s="7"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="15"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3093,7 +3125,7 @@
       <c r="I127" s="17"/>
       <c r="J127" s="7"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3105,7 +3137,7 @@
       <c r="I128" s="17"/>
       <c r="J128" s="7"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -3117,7 +3149,7 @@
       <c r="I129" s="17"/>
       <c r="J129" s="7"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -3129,7 +3161,7 @@
       <c r="I130" s="17"/>
       <c r="J130" s="7"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -3141,7 +3173,7 @@
       <c r="I131" s="17"/>
       <c r="J131" s="7"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="15"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3153,7 +3185,7 @@
       <c r="I132" s="17"/>
       <c r="J132" s="7"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3165,7 +3197,7 @@
       <c r="I133" s="17"/>
       <c r="J133" s="7"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="15"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -3177,7 +3209,7 @@
       <c r="I134" s="17"/>
       <c r="J134" s="7"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="15"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -3189,7 +3221,7 @@
       <c r="I135" s="17"/>
       <c r="J135" s="7"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="15"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -3201,7 +3233,7 @@
       <c r="I136" s="17"/>
       <c r="J136" s="7"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="15"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -3213,7 +3245,7 @@
       <c r="I137" s="17"/>
       <c r="J137" s="7"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="15"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -3225,7 +3257,7 @@
       <c r="I138" s="17"/>
       <c r="J138" s="7"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="15"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -3237,7 +3269,7 @@
       <c r="I139" s="17"/>
       <c r="J139" s="7"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="15"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -3249,7 +3281,7 @@
       <c r="I140" s="17"/>
       <c r="J140" s="7"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="15"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -3261,7 +3293,7 @@
       <c r="I141" s="17"/>
       <c r="J141" s="7"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="15"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -3273,7 +3305,7 @@
       <c r="I142" s="17"/>
       <c r="J142" s="7"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="15"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -3285,7 +3317,7 @@
       <c r="I143" s="17"/>
       <c r="J143" s="7"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="15"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -3297,7 +3329,7 @@
       <c r="I144" s="17"/>
       <c r="J144" s="7"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="15"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -3309,7 +3341,7 @@
       <c r="I145" s="17"/>
       <c r="J145" s="7"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="15"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -3321,7 +3353,7 @@
       <c r="I146" s="17"/>
       <c r="J146" s="7"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="15"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -3333,7 +3365,7 @@
       <c r="I147" s="17"/>
       <c r="J147" s="7"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="15"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -3345,7 +3377,7 @@
       <c r="I148" s="17"/>
       <c r="J148" s="7"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="15"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -3357,7 +3389,7 @@
       <c r="I149" s="17"/>
       <c r="J149" s="7"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="15"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -3369,7 +3401,7 @@
       <c r="I150" s="17"/>
       <c r="J150" s="7"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="15"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -3381,7 +3413,7 @@
       <c r="I151" s="17"/>
       <c r="J151" s="7"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="15"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -3393,7 +3425,7 @@
       <c r="I152" s="17"/>
       <c r="J152" s="7"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="15"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -3405,7 +3437,7 @@
       <c r="I153" s="17"/>
       <c r="J153" s="7"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="15"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -3417,7 +3449,7 @@
       <c r="I154" s="17"/>
       <c r="J154" s="7"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="15"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -3429,7 +3461,7 @@
       <c r="I155" s="17"/>
       <c r="J155" s="7"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="15"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3441,7 +3473,7 @@
       <c r="I156" s="17"/>
       <c r="J156" s="7"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="15"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -3453,7 +3485,7 @@
       <c r="I157" s="17"/>
       <c r="J157" s="7"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="15"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -3465,7 +3497,7 @@
       <c r="I158" s="17"/>
       <c r="J158" s="7"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="15"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3477,7 +3509,7 @@
       <c r="I159" s="17"/>
       <c r="J159" s="7"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="15"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -3489,7 +3521,7 @@
       <c r="I160" s="17"/>
       <c r="J160" s="7"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="15"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3501,7 +3533,7 @@
       <c r="I161" s="17"/>
       <c r="J161" s="7"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="15"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -3513,7 +3545,7 @@
       <c r="I162" s="17"/>
       <c r="J162" s="7"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="15"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3525,7 +3557,7 @@
       <c r="I163" s="17"/>
       <c r="J163" s="7"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="15"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3537,7 +3569,7 @@
       <c r="I164" s="17"/>
       <c r="J164" s="7"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="15"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3549,7 +3581,7 @@
       <c r="I165" s="17"/>
       <c r="J165" s="7"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="15"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3561,7 +3593,7 @@
       <c r="I166" s="17"/>
       <c r="J166" s="7"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="15"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3573,7 +3605,7 @@
       <c r="I167" s="17"/>
       <c r="J167" s="7"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="15"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -3585,7 +3617,7 @@
       <c r="I168" s="17"/>
       <c r="J168" s="7"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="15"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -3597,7 +3629,7 @@
       <c r="I169" s="17"/>
       <c r="J169" s="7"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="15"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -3609,7 +3641,7 @@
       <c r="I170" s="17"/>
       <c r="J170" s="7"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="15"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -3621,7 +3653,7 @@
       <c r="I171" s="17"/>
       <c r="J171" s="7"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="15"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -3633,7 +3665,7 @@
       <c r="I172" s="17"/>
       <c r="J172" s="7"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="15"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -3645,7 +3677,7 @@
       <c r="I173" s="17"/>
       <c r="J173" s="7"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="15"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -3657,7 +3689,7 @@
       <c r="I174" s="17"/>
       <c r="J174" s="7"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="15"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -3669,7 +3701,7 @@
       <c r="I175" s="17"/>
       <c r="J175" s="7"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="15"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -3681,7 +3713,7 @@
       <c r="I176" s="17"/>
       <c r="J176" s="7"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="15"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -3693,7 +3725,7 @@
       <c r="I177" s="17"/>
       <c r="J177" s="7"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="15"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -3705,7 +3737,7 @@
       <c r="I178" s="17"/>
       <c r="J178" s="7"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="15"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -3717,7 +3749,7 @@
       <c r="I179" s="17"/>
       <c r="J179" s="7"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="15"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -3729,7 +3761,7 @@
       <c r="I180" s="17"/>
       <c r="J180" s="7"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="15"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -3741,7 +3773,7 @@
       <c r="I181" s="17"/>
       <c r="J181" s="7"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="15"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -3753,7 +3785,7 @@
       <c r="I182" s="17"/>
       <c r="J182" s="7"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="15"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -3765,7 +3797,7 @@
       <c r="I183" s="17"/>
       <c r="J183" s="7"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="15"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -3777,7 +3809,7 @@
       <c r="I184" s="17"/>
       <c r="J184" s="7"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="15"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -3789,7 +3821,7 @@
       <c r="I185" s="17"/>
       <c r="J185" s="7"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="15"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -3801,7 +3833,7 @@
       <c r="I186" s="17"/>
       <c r="J186" s="7"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="15"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -3813,7 +3845,7 @@
       <c r="I187" s="17"/>
       <c r="J187" s="7"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="15"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -3825,7 +3857,7 @@
       <c r="I188" s="17"/>
       <c r="J188" s="7"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="15"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -3837,7 +3869,7 @@
       <c r="I189" s="17"/>
       <c r="J189" s="7"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="15"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -3849,7 +3881,7 @@
       <c r="I190" s="17"/>
       <c r="J190" s="7"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="15"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -3861,7 +3893,7 @@
       <c r="I191" s="17"/>
       <c r="J191" s="7"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="15"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -3873,7 +3905,7 @@
       <c r="I192" s="17"/>
       <c r="J192" s="7"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="15"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -3885,7 +3917,7 @@
       <c r="I193" s="17"/>
       <c r="J193" s="7"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="15"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -3897,7 +3929,7 @@
       <c r="I194" s="17"/>
       <c r="J194" s="7"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="15"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -3909,7 +3941,7 @@
       <c r="I195" s="17"/>
       <c r="J195" s="7"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="15"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -3921,7 +3953,7 @@
       <c r="I196" s="17"/>
       <c r="J196" s="7"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="15"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -3933,7 +3965,7 @@
       <c r="I197" s="17"/>
       <c r="J197" s="7"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="15"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -3945,7 +3977,7 @@
       <c r="I198" s="17"/>
       <c r="J198" s="7"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="15"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -3957,7 +3989,7 @@
       <c r="I199" s="17"/>
       <c r="J199" s="7"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="15"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -3969,7 +4001,7 @@
       <c r="I200" s="17"/>
       <c r="J200" s="7"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="18"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -4019,38 +4051,36 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="25.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="2" customWidth="1"/>
-    <col min="5" max="7" width="25.7265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="45.7265625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="3" width="25.7109375" style="1" customWidth="1"/>
+    <col min="4" max="7" width="25.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>0</v>
@@ -4059,2219 +4089,2219 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="12"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="12"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="12"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="12"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="12"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="12"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="12"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="12"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="12"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="12"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="12"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="12"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="12"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="12"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="12"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="12"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="12"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="12"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="12"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="12"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="12"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="12"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="12"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="12"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="12"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="12"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="12"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="12"/>
+      <c r="G56" s="10"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="12"/>
+      <c r="G57" s="10"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="12"/>
+      <c r="G58" s="10"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="12"/>
+      <c r="G59" s="10"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="12"/>
+      <c r="G60" s="10"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="12"/>
+      <c r="G61" s="10"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="12"/>
+      <c r="G62" s="10"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="12"/>
+      <c r="G63" s="10"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="12"/>
+      <c r="G64" s="10"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="12"/>
+      <c r="G65" s="10"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="12"/>
+      <c r="G66" s="10"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
-      <c r="G67" s="12"/>
+      <c r="G67" s="10"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
-      <c r="G68" s="12"/>
+      <c r="G68" s="10"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
-      <c r="G69" s="12"/>
+      <c r="G69" s="10"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="12"/>
+      <c r="G70" s="10"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
-      <c r="G71" s="12"/>
+      <c r="G71" s="10"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="12"/>
+      <c r="G72" s="10"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
-      <c r="G73" s="12"/>
+      <c r="G73" s="10"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
-      <c r="G74" s="12"/>
+      <c r="G74" s="10"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
-      <c r="G75" s="12"/>
+      <c r="G75" s="10"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
-      <c r="G76" s="12"/>
+      <c r="G76" s="10"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
-      <c r="G77" s="12"/>
+      <c r="G77" s="10"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
-      <c r="G78" s="12"/>
+      <c r="G78" s="10"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
-      <c r="G79" s="12"/>
+      <c r="G79" s="10"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
-      <c r="G80" s="12"/>
+      <c r="G80" s="10"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
-      <c r="G81" s="12"/>
+      <c r="G81" s="10"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
-      <c r="G82" s="12"/>
+      <c r="G82" s="10"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
-      <c r="G83" s="12"/>
+      <c r="G83" s="10"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
-      <c r="G84" s="12"/>
+      <c r="G84" s="10"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
-      <c r="G85" s="12"/>
+      <c r="G85" s="10"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
-      <c r="G86" s="12"/>
+      <c r="G86" s="10"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
-      <c r="G87" s="12"/>
+      <c r="G87" s="10"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
-      <c r="G88" s="12"/>
+      <c r="G88" s="10"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
-      <c r="G89" s="12"/>
+      <c r="G89" s="10"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
-      <c r="G90" s="12"/>
+      <c r="G90" s="10"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
-      <c r="G91" s="12"/>
+      <c r="G91" s="10"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="12"/>
+      <c r="G92" s="10"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
-      <c r="G93" s="12"/>
+      <c r="G93" s="10"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
-      <c r="D94" s="11"/>
+      <c r="D94" s="10"/>
       <c r="E94" s="11"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="12"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="10"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
-      <c r="D95" s="11"/>
+      <c r="D95" s="10"/>
       <c r="E95" s="11"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="12"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="10"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
-      <c r="D96" s="11"/>
+      <c r="D96" s="10"/>
       <c r="E96" s="11"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="12"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="10"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
-      <c r="D97" s="11"/>
+      <c r="D97" s="10"/>
       <c r="E97" s="11"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="12"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="10"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
-      <c r="D98" s="11"/>
+      <c r="D98" s="10"/>
       <c r="E98" s="11"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="12"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="10"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
-      <c r="D99" s="11"/>
+      <c r="D99" s="10"/>
       <c r="E99" s="11"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="12"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="10"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
-      <c r="D100" s="11"/>
+      <c r="D100" s="10"/>
       <c r="E100" s="11"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="12"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="10"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
-      <c r="D101" s="11"/>
+      <c r="D101" s="10"/>
       <c r="E101" s="11"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="12"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="10"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
-      <c r="D102" s="11"/>
+      <c r="D102" s="10"/>
       <c r="E102" s="11"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="12"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="10"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
-      <c r="D103" s="11"/>
+      <c r="D103" s="10"/>
       <c r="E103" s="11"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="12"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="10"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
-      <c r="D104" s="11"/>
+      <c r="D104" s="10"/>
       <c r="E104" s="11"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="12"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="10"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
-      <c r="D105" s="11"/>
+      <c r="D105" s="10"/>
       <c r="E105" s="11"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="12"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="10"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
-      <c r="D106" s="11"/>
+      <c r="D106" s="10"/>
       <c r="E106" s="11"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="12"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="10"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
-      <c r="D107" s="11"/>
+      <c r="D107" s="10"/>
       <c r="E107" s="11"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="12"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="10"/>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
-      <c r="D108" s="11"/>
+      <c r="D108" s="10"/>
       <c r="E108" s="11"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="12"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="10"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
-      <c r="D109" s="11"/>
+      <c r="D109" s="10"/>
       <c r="E109" s="11"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="12"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="10"/>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
-      <c r="D110" s="11"/>
+      <c r="D110" s="10"/>
       <c r="E110" s="11"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="12"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="10"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
-      <c r="D111" s="11"/>
+      <c r="D111" s="10"/>
       <c r="E111" s="11"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="12"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="10"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
-      <c r="D112" s="11"/>
+      <c r="D112" s="10"/>
       <c r="E112" s="11"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="12"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="10"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
-      <c r="D113" s="11"/>
+      <c r="D113" s="10"/>
       <c r="E113" s="11"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="12"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="10"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
-      <c r="D114" s="11"/>
+      <c r="D114" s="10"/>
       <c r="E114" s="11"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="12"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="10"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
-      <c r="D115" s="11"/>
+      <c r="D115" s="10"/>
       <c r="E115" s="11"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="12"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="10"/>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
-      <c r="D116" s="11"/>
+      <c r="D116" s="10"/>
       <c r="E116" s="11"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="12"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="10"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
-      <c r="D117" s="11"/>
+      <c r="D117" s="10"/>
       <c r="E117" s="11"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="12"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="10"/>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
-      <c r="D118" s="11"/>
+      <c r="D118" s="10"/>
       <c r="E118" s="11"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="12"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="10"/>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
-      <c r="D119" s="11"/>
+      <c r="D119" s="10"/>
       <c r="E119" s="11"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="12"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="10"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
-      <c r="D120" s="11"/>
+      <c r="D120" s="10"/>
       <c r="E120" s="11"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="12"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="10"/>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
-      <c r="D121" s="11"/>
+      <c r="D121" s="10"/>
       <c r="E121" s="11"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="12"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="10"/>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
-      <c r="D122" s="11"/>
+      <c r="D122" s="10"/>
       <c r="E122" s="11"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="12"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="10"/>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
-      <c r="D123" s="11"/>
+      <c r="D123" s="10"/>
       <c r="E123" s="11"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="12"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="10"/>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
-      <c r="D124" s="11"/>
+      <c r="D124" s="10"/>
       <c r="E124" s="11"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="12"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="10"/>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
-      <c r="D125" s="11"/>
+      <c r="D125" s="10"/>
       <c r="E125" s="11"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="12"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="10"/>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
-      <c r="D126" s="11"/>
+      <c r="D126" s="10"/>
       <c r="E126" s="11"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="12"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="10"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
-      <c r="D127" s="11"/>
+      <c r="D127" s="10"/>
       <c r="E127" s="11"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="12"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="10"/>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
-      <c r="D128" s="11"/>
+      <c r="D128" s="10"/>
       <c r="E128" s="11"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="12"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="10"/>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
-      <c r="D129" s="11"/>
+      <c r="D129" s="10"/>
       <c r="E129" s="11"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="12"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="10"/>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
-      <c r="D130" s="11"/>
+      <c r="D130" s="10"/>
       <c r="E130" s="11"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="12"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="10"/>
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
-      <c r="D131" s="11"/>
+      <c r="D131" s="10"/>
       <c r="E131" s="11"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="12"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="10"/>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
-      <c r="D132" s="11"/>
+      <c r="D132" s="10"/>
       <c r="E132" s="11"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="12"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="10"/>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
-      <c r="D133" s="11"/>
+      <c r="D133" s="10"/>
       <c r="E133" s="11"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="12"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="10"/>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
-      <c r="D134" s="11"/>
+      <c r="D134" s="10"/>
       <c r="E134" s="11"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="12"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="10"/>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
-      <c r="D135" s="11"/>
+      <c r="D135" s="10"/>
       <c r="E135" s="11"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="12"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="10"/>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
-      <c r="D136" s="11"/>
+      <c r="D136" s="10"/>
       <c r="E136" s="11"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="12"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="10"/>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
-      <c r="D137" s="11"/>
+      <c r="D137" s="10"/>
       <c r="E137" s="11"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="12"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="10"/>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
-      <c r="D138" s="11"/>
+      <c r="D138" s="10"/>
       <c r="E138" s="11"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="12"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="10"/>
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
-      <c r="D139" s="11"/>
+      <c r="D139" s="10"/>
       <c r="E139" s="11"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="12"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="10"/>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
-      <c r="D140" s="11"/>
+      <c r="D140" s="10"/>
       <c r="E140" s="11"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="12"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="10"/>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
-      <c r="D141" s="11"/>
+      <c r="D141" s="10"/>
       <c r="E141" s="11"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="12"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="10"/>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
-      <c r="D142" s="11"/>
+      <c r="D142" s="10"/>
       <c r="E142" s="11"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="12"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="10"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
-      <c r="D143" s="11"/>
+      <c r="D143" s="10"/>
       <c r="E143" s="11"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="12"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="10"/>
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
-      <c r="D144" s="11"/>
+      <c r="D144" s="10"/>
       <c r="E144" s="11"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="12"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="10"/>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
-      <c r="D145" s="11"/>
+      <c r="D145" s="10"/>
       <c r="E145" s="11"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="12"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="10"/>
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
-      <c r="D146" s="11"/>
+      <c r="D146" s="10"/>
       <c r="E146" s="11"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="12"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="10"/>
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
-      <c r="D147" s="11"/>
+      <c r="D147" s="10"/>
       <c r="E147" s="11"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="12"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="10"/>
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
-      <c r="D148" s="11"/>
+      <c r="D148" s="10"/>
       <c r="E148" s="11"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="12"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="10"/>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
-      <c r="D149" s="11"/>
+      <c r="D149" s="10"/>
       <c r="E149" s="11"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="12"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="10"/>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
-      <c r="D150" s="11"/>
+      <c r="D150" s="10"/>
       <c r="E150" s="11"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="12"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="10"/>
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
-      <c r="D151" s="11"/>
+      <c r="D151" s="10"/>
       <c r="E151" s="11"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="12"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="10"/>
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
-      <c r="D152" s="11"/>
+      <c r="D152" s="10"/>
       <c r="E152" s="11"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="12"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="10"/>
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
-      <c r="D153" s="11"/>
+      <c r="D153" s="10"/>
       <c r="E153" s="11"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="12"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="10"/>
       <c r="H153" s="6"/>
       <c r="I153" s="6"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
-      <c r="D154" s="11"/>
+      <c r="D154" s="10"/>
       <c r="E154" s="11"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="12"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="10"/>
       <c r="H154" s="6"/>
       <c r="I154" s="6"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
-      <c r="D155" s="11"/>
+      <c r="D155" s="10"/>
       <c r="E155" s="11"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="12"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="10"/>
       <c r="H155" s="6"/>
       <c r="I155" s="6"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
-      <c r="D156" s="11"/>
+      <c r="D156" s="10"/>
       <c r="E156" s="11"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="12"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="10"/>
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
-      <c r="D157" s="11"/>
+      <c r="D157" s="10"/>
       <c r="E157" s="11"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="12"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="10"/>
       <c r="H157" s="6"/>
       <c r="I157" s="6"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
-      <c r="D158" s="11"/>
+      <c r="D158" s="10"/>
       <c r="E158" s="11"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="12"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="10"/>
       <c r="H158" s="6"/>
       <c r="I158" s="6"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
-      <c r="D159" s="11"/>
+      <c r="D159" s="10"/>
       <c r="E159" s="11"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="12"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="10"/>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
-      <c r="D160" s="11"/>
+      <c r="D160" s="10"/>
       <c r="E160" s="11"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="12"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="10"/>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
-      <c r="D161" s="11"/>
+      <c r="D161" s="10"/>
       <c r="E161" s="11"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="12"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="10"/>
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
-      <c r="D162" s="11"/>
+      <c r="D162" s="10"/>
       <c r="E162" s="11"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="12"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="10"/>
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
-      <c r="D163" s="11"/>
+      <c r="D163" s="10"/>
       <c r="E163" s="11"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="12"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="10"/>
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
-      <c r="D164" s="11"/>
+      <c r="D164" s="10"/>
       <c r="E164" s="11"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="12"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="10"/>
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
-      <c r="D165" s="11"/>
+      <c r="D165" s="10"/>
       <c r="E165" s="11"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="12"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="10"/>
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
-      <c r="D166" s="11"/>
+      <c r="D166" s="10"/>
       <c r="E166" s="11"/>
-      <c r="F166" s="10"/>
-      <c r="G166" s="12"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="10"/>
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
-      <c r="D167" s="11"/>
+      <c r="D167" s="10"/>
       <c r="E167" s="11"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="12"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="10"/>
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
-      <c r="D168" s="11"/>
+      <c r="D168" s="10"/>
       <c r="E168" s="11"/>
-      <c r="F168" s="10"/>
-      <c r="G168" s="12"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="10"/>
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
-      <c r="D169" s="11"/>
+      <c r="D169" s="10"/>
       <c r="E169" s="11"/>
-      <c r="F169" s="10"/>
-      <c r="G169" s="12"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="10"/>
       <c r="H169" s="6"/>
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
-      <c r="D170" s="11"/>
+      <c r="D170" s="10"/>
       <c r="E170" s="11"/>
-      <c r="F170" s="10"/>
-      <c r="G170" s="12"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="10"/>
       <c r="H170" s="6"/>
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
-      <c r="D171" s="11"/>
+      <c r="D171" s="10"/>
       <c r="E171" s="11"/>
-      <c r="F171" s="10"/>
-      <c r="G171" s="12"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="10"/>
       <c r="H171" s="6"/>
       <c r="I171" s="6"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
-      <c r="D172" s="11"/>
+      <c r="D172" s="10"/>
       <c r="E172" s="11"/>
-      <c r="F172" s="10"/>
-      <c r="G172" s="12"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="10"/>
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
-      <c r="D173" s="11"/>
+      <c r="D173" s="10"/>
       <c r="E173" s="11"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="12"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="10"/>
       <c r="H173" s="6"/>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
-      <c r="D174" s="11"/>
+      <c r="D174" s="10"/>
       <c r="E174" s="11"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="12"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="10"/>
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
-      <c r="D175" s="11"/>
+      <c r="D175" s="10"/>
       <c r="E175" s="11"/>
-      <c r="F175" s="10"/>
-      <c r="G175" s="12"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="10"/>
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
-      <c r="D176" s="11"/>
+      <c r="D176" s="10"/>
       <c r="E176" s="11"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="12"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="10"/>
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
-      <c r="D177" s="11"/>
+      <c r="D177" s="10"/>
       <c r="E177" s="11"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="12"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="10"/>
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
-      <c r="D178" s="11"/>
+      <c r="D178" s="10"/>
       <c r="E178" s="11"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="12"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="10"/>
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
-      <c r="D179" s="11"/>
+      <c r="D179" s="10"/>
       <c r="E179" s="11"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="12"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="10"/>
       <c r="H179" s="6"/>
       <c r="I179" s="6"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
-      <c r="D180" s="11"/>
+      <c r="D180" s="10"/>
       <c r="E180" s="11"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="12"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="10"/>
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
-      <c r="D181" s="11"/>
+      <c r="D181" s="10"/>
       <c r="E181" s="11"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="12"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="10"/>
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
-      <c r="D182" s="11"/>
+      <c r="D182" s="10"/>
       <c r="E182" s="11"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="12"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="10"/>
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
-      <c r="D183" s="11"/>
+      <c r="D183" s="10"/>
       <c r="E183" s="11"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="12"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="10"/>
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
-      <c r="D184" s="11"/>
+      <c r="D184" s="10"/>
       <c r="E184" s="11"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="12"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="10"/>
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
-      <c r="D185" s="11"/>
+      <c r="D185" s="10"/>
       <c r="E185" s="11"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="12"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="10"/>
       <c r="H185" s="6"/>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
-      <c r="D186" s="11"/>
+      <c r="D186" s="10"/>
       <c r="E186" s="11"/>
-      <c r="F186" s="10"/>
-      <c r="G186" s="12"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="10"/>
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
-      <c r="D187" s="11"/>
+      <c r="D187" s="10"/>
       <c r="E187" s="11"/>
-      <c r="F187" s="10"/>
-      <c r="G187" s="12"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="10"/>
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
-      <c r="D188" s="11"/>
+      <c r="D188" s="10"/>
       <c r="E188" s="11"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="12"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="10"/>
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
-      <c r="D189" s="11"/>
+      <c r="D189" s="10"/>
       <c r="E189" s="11"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="12"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="10"/>
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
-      <c r="D190" s="11"/>
+      <c r="D190" s="10"/>
       <c r="E190" s="11"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="12"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="10"/>
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
-      <c r="D191" s="11"/>
+      <c r="D191" s="10"/>
       <c r="E191" s="11"/>
-      <c r="F191" s="10"/>
-      <c r="G191" s="12"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="10"/>
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
-      <c r="D192" s="11"/>
+      <c r="D192" s="10"/>
       <c r="E192" s="11"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="12"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="10"/>
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
-      <c r="D193" s="11"/>
+      <c r="D193" s="10"/>
       <c r="E193" s="11"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="12"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="10"/>
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
-      <c r="D194" s="11"/>
+      <c r="D194" s="10"/>
       <c r="E194" s="11"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="12"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="10"/>
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
-      <c r="D195" s="11"/>
+      <c r="D195" s="10"/>
       <c r="E195" s="11"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="12"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="10"/>
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
-      <c r="D196" s="11"/>
+      <c r="D196" s="10"/>
       <c r="E196" s="11"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="12"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="10"/>
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
-      <c r="D197" s="11"/>
+      <c r="D197" s="10"/>
       <c r="E197" s="11"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="12"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="10"/>
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
-      <c r="D198" s="11"/>
+      <c r="D198" s="10"/>
       <c r="E198" s="11"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="12"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="10"/>
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
-      <c r="D199" s="11"/>
+      <c r="D199" s="10"/>
       <c r="E199" s="11"/>
-      <c r="F199" s="10"/>
-      <c r="G199" s="12"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="10"/>
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
-      <c r="D200" s="11"/>
+      <c r="D200" s="10"/>
       <c r="E200" s="11"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="12"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="10"/>
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A201" s="10"/>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="25"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
-      <c r="D201" s="11"/>
+      <c r="D201" s="10"/>
       <c r="E201" s="11"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="12"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="10"/>
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94:B1048576" xr:uid="{F44B3D79-6E85-4752-80E5-E171C2D51A7E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B202:B1048576 C94:C201" xr:uid="{F44B3D79-6E85-4752-80E5-E171C2D51A7E}">
       <formula1>"Text,Bool,Integer,Credential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Hosting Type" error="Please select a supported Hosting Type." sqref="A2:A1048576" xr:uid="{20653D52-B8E9-4EEB-9B45-38F0B8088F8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Hosting Type" error="Please select a supported Hosting Type." sqref="B2:B201" xr:uid="{20653D52-B8E9-4EEB-9B45-38F0B8088F8B}">
       <formula1>"Standard,Floating"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot ID" error="Robot ID must be an integer greater than 0." sqref="H2:H1048576" xr:uid="{773DCA53-A523-4EAE-BE9E-0532D00C69A3}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot ID" error="Robot ID must be an integer greater than 0." sqref="H2:H201" xr:uid="{773DCA53-A523-4EAE-BE9E-0532D00C69A3}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot Type" error="Please select a supported Robot Type." sqref="D2:D1048576" xr:uid="{FA465BF8-725B-4CC5-8B54-DC5C741C30AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot Type" error="Please select a supported Robot Type." sqref="D202:D1048576 E2:E201" xr:uid="{FA465BF8-725B-4CC5-8B54-DC5C741C30AB}">
       <formula1>"NonProduction,Attended,Unattended,Studio,Development,StudioX,Headless,StudioPro,TestAutomation"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6291,20 +6321,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="25.7265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="45.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="25.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="2"/>
+    <col min="10" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -6330,7 +6360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="10"/>
@@ -6340,7 +6370,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="10"/>
@@ -6350,7 +6380,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="10"/>
@@ -6360,7 +6390,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="10"/>
@@ -6370,7 +6400,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="10"/>
@@ -6380,7 +6410,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="10"/>
@@ -6390,7 +6420,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
@@ -6400,7 +6430,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="10"/>
@@ -6410,7 +6440,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="10"/>
@@ -6420,7 +6450,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
@@ -6430,7 +6460,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="10"/>
@@ -6440,7 +6470,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
@@ -6450,7 +6480,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
@@ -6460,7 +6490,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
@@ -6470,7 +6500,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
@@ -6480,7 +6510,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="10"/>
@@ -6490,7 +6520,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="10"/>
@@ -6500,7 +6530,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
@@ -6510,7 +6540,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="10"/>
@@ -6520,7 +6550,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="10"/>
@@ -6530,7 +6560,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="10"/>
@@ -6540,7 +6570,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="10"/>
@@ -6550,7 +6580,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="10"/>
@@ -6560,7 +6590,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="10"/>
@@ -6570,7 +6600,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
@@ -6580,7 +6610,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="10"/>
@@ -6590,7 +6620,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
@@ -6600,7 +6630,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
@@ -6610,7 +6640,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
@@ -6620,7 +6650,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="10"/>
@@ -6630,7 +6660,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
@@ -6640,7 +6670,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
@@ -6650,7 +6680,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
@@ -6660,7 +6690,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
@@ -6670,7 +6700,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
@@ -6680,7 +6710,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
@@ -6690,7 +6720,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
@@ -6700,7 +6730,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -6710,7 +6740,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -6720,7 +6750,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
@@ -6730,7 +6760,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
@@ -6740,7 +6770,7 @@
       <c r="G42" s="12"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
@@ -6750,7 +6780,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
@@ -6760,7 +6790,7 @@
       <c r="G44" s="12"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="10"/>
@@ -6770,7 +6800,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="10"/>
@@ -6780,7 +6810,7 @@
       <c r="G46" s="12"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="10"/>
@@ -6790,7 +6820,7 @@
       <c r="G47" s="12"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="10"/>
@@ -6800,7 +6830,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="10"/>
@@ -6810,7 +6840,7 @@
       <c r="G49" s="12"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="10"/>
@@ -6820,7 +6850,7 @@
       <c r="G50" s="12"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="10"/>
@@ -6830,7 +6860,7 @@
       <c r="G51" s="12"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="10"/>
@@ -6840,7 +6870,7 @@
       <c r="G52" s="12"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="10"/>
@@ -6850,7 +6880,7 @@
       <c r="G53" s="12"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="10"/>
@@ -6860,7 +6890,7 @@
       <c r="G54" s="12"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="10"/>
@@ -6870,7 +6900,7 @@
       <c r="G55" s="12"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="10"/>
@@ -6880,7 +6910,7 @@
       <c r="G56" s="12"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="10"/>
@@ -6890,7 +6920,7 @@
       <c r="G57" s="12"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="10"/>
@@ -6900,7 +6930,7 @@
       <c r="G58" s="12"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="10"/>
@@ -6910,7 +6940,7 @@
       <c r="G59" s="12"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="10"/>
@@ -6920,7 +6950,7 @@
       <c r="G60" s="12"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="10"/>
@@ -6930,7 +6960,7 @@
       <c r="G61" s="12"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="10"/>
@@ -6940,7 +6970,7 @@
       <c r="G62" s="12"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="10"/>
@@ -6950,7 +6980,7 @@
       <c r="G63" s="12"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="10"/>
@@ -6960,7 +6990,7 @@
       <c r="G64" s="12"/>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="10"/>
@@ -6970,7 +7000,7 @@
       <c r="G65" s="12"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="10"/>
@@ -6980,7 +7010,7 @@
       <c r="G66" s="12"/>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="10"/>
@@ -6990,7 +7020,7 @@
       <c r="G67" s="12"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="10"/>
@@ -7000,7 +7030,7 @@
       <c r="G68" s="12"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="10"/>
@@ -7010,7 +7040,7 @@
       <c r="G69" s="12"/>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="10"/>
@@ -7020,7 +7050,7 @@
       <c r="G70" s="12"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="10"/>
@@ -7030,7 +7060,7 @@
       <c r="G71" s="12"/>
       <c r="H71" s="5"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="10"/>
@@ -7040,7 +7070,7 @@
       <c r="G72" s="12"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="10"/>
@@ -7050,7 +7080,7 @@
       <c r="G73" s="12"/>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="10"/>
@@ -7060,7 +7090,7 @@
       <c r="G74" s="12"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="10"/>
@@ -7070,7 +7100,7 @@
       <c r="G75" s="12"/>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="10"/>
@@ -7080,7 +7110,7 @@
       <c r="G76" s="12"/>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="10"/>
@@ -7090,7 +7120,7 @@
       <c r="G77" s="12"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="10"/>
@@ -7100,7 +7130,7 @@
       <c r="G78" s="12"/>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="10"/>
@@ -7110,7 +7140,7 @@
       <c r="G79" s="12"/>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="10"/>
@@ -7120,7 +7150,7 @@
       <c r="G80" s="12"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="10"/>
@@ -7130,7 +7160,7 @@
       <c r="G81" s="12"/>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="10"/>
@@ -7140,7 +7170,7 @@
       <c r="G82" s="12"/>
       <c r="H82" s="5"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="10"/>
@@ -7150,7 +7180,7 @@
       <c r="G83" s="12"/>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="10"/>
@@ -7160,7 +7190,7 @@
       <c r="G84" s="12"/>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="10"/>
@@ -7170,7 +7200,7 @@
       <c r="G85" s="12"/>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="10"/>
@@ -7180,7 +7210,7 @@
       <c r="G86" s="12"/>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="10"/>
@@ -7190,7 +7220,7 @@
       <c r="G87" s="12"/>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="10"/>
@@ -7200,7 +7230,7 @@
       <c r="G88" s="12"/>
       <c r="H88" s="5"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="10"/>
@@ -7210,7 +7240,7 @@
       <c r="G89" s="12"/>
       <c r="H89" s="5"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="10"/>
@@ -7220,7 +7250,7 @@
       <c r="G90" s="12"/>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="10"/>
@@ -7230,7 +7260,7 @@
       <c r="G91" s="12"/>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="10"/>
@@ -7240,7 +7270,7 @@
       <c r="G92" s="12"/>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="10"/>
@@ -7250,7 +7280,7 @@
       <c r="G93" s="12"/>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="10"/>
@@ -7260,7 +7290,7 @@
       <c r="G94" s="12"/>
       <c r="H94" s="5"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="10"/>
@@ -7270,7 +7300,7 @@
       <c r="G95" s="12"/>
       <c r="H95" s="5"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="10"/>
@@ -7280,7 +7310,7 @@
       <c r="G96" s="12"/>
       <c r="H96" s="5"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="10"/>
@@ -7290,7 +7320,7 @@
       <c r="G97" s="12"/>
       <c r="H97" s="5"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="10"/>
@@ -7300,7 +7330,7 @@
       <c r="G98" s="12"/>
       <c r="H98" s="5"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="10"/>
@@ -7310,7 +7340,7 @@
       <c r="G99" s="12"/>
       <c r="H99" s="5"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="10"/>
@@ -7320,7 +7350,7 @@
       <c r="G100" s="12"/>
       <c r="H100" s="5"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="10"/>
@@ -7330,7 +7360,7 @@
       <c r="G101" s="12"/>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="10"/>
@@ -7340,7 +7370,7 @@
       <c r="G102" s="12"/>
       <c r="H102" s="5"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="10"/>
@@ -7350,7 +7380,7 @@
       <c r="G103" s="12"/>
       <c r="H103" s="5"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="10"/>
@@ -7360,7 +7390,7 @@
       <c r="G104" s="12"/>
       <c r="H104" s="5"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="10"/>
@@ -7370,7 +7400,7 @@
       <c r="G105" s="12"/>
       <c r="H105" s="5"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="10"/>
@@ -7380,7 +7410,7 @@
       <c r="G106" s="12"/>
       <c r="H106" s="5"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="10"/>
@@ -7390,7 +7420,7 @@
       <c r="G107" s="12"/>
       <c r="H107" s="5"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="10"/>
@@ -7400,7 +7430,7 @@
       <c r="G108" s="12"/>
       <c r="H108" s="5"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="10"/>
@@ -7410,7 +7440,7 @@
       <c r="G109" s="12"/>
       <c r="H109" s="5"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="10"/>
@@ -7420,7 +7450,7 @@
       <c r="G110" s="12"/>
       <c r="H110" s="5"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="10"/>
@@ -7430,7 +7460,7 @@
       <c r="G111" s="12"/>
       <c r="H111" s="5"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="10"/>
@@ -7440,7 +7470,7 @@
       <c r="G112" s="12"/>
       <c r="H112" s="5"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="10"/>
@@ -7450,7 +7480,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="5"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="10"/>
@@ -7460,7 +7490,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="5"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="10"/>
@@ -7470,7 +7500,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="10"/>
@@ -7480,7 +7510,7 @@
       <c r="G116" s="12"/>
       <c r="H116" s="5"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="10"/>
@@ -7490,7 +7520,7 @@
       <c r="G117" s="12"/>
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="10"/>
@@ -7500,7 +7530,7 @@
       <c r="G118" s="12"/>
       <c r="H118" s="5"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="10"/>
@@ -7510,7 +7540,7 @@
       <c r="G119" s="12"/>
       <c r="H119" s="5"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="10"/>
@@ -7520,7 +7550,7 @@
       <c r="G120" s="12"/>
       <c r="H120" s="5"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="10"/>
@@ -7530,7 +7560,7 @@
       <c r="G121" s="12"/>
       <c r="H121" s="5"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="10"/>
@@ -7540,7 +7570,7 @@
       <c r="G122" s="12"/>
       <c r="H122" s="5"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="10"/>
@@ -7550,7 +7580,7 @@
       <c r="G123" s="12"/>
       <c r="H123" s="5"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="10"/>
@@ -7560,7 +7590,7 @@
       <c r="G124" s="12"/>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="10"/>
@@ -7570,7 +7600,7 @@
       <c r="G125" s="12"/>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="10"/>
@@ -7580,7 +7610,7 @@
       <c r="G126" s="12"/>
       <c r="H126" s="5"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="10"/>
@@ -7590,7 +7620,7 @@
       <c r="G127" s="12"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="10"/>
@@ -7600,7 +7630,7 @@
       <c r="G128" s="12"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="10"/>
@@ -7610,7 +7640,7 @@
       <c r="G129" s="12"/>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="10"/>
@@ -7620,7 +7650,7 @@
       <c r="G130" s="12"/>
       <c r="H130" s="5"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="10"/>
@@ -7630,7 +7660,7 @@
       <c r="G131" s="12"/>
       <c r="H131" s="5"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="10"/>
@@ -7640,7 +7670,7 @@
       <c r="G132" s="12"/>
       <c r="H132" s="5"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="10"/>
@@ -7650,7 +7680,7 @@
       <c r="G133" s="12"/>
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="10"/>
@@ -7660,7 +7690,7 @@
       <c r="G134" s="12"/>
       <c r="H134" s="5"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="10"/>
@@ -7670,7 +7700,7 @@
       <c r="G135" s="12"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="10"/>
@@ -7680,7 +7710,7 @@
       <c r="G136" s="12"/>
       <c r="H136" s="5"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="10"/>
@@ -7690,7 +7720,7 @@
       <c r="G137" s="12"/>
       <c r="H137" s="5"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="10"/>
@@ -7700,7 +7730,7 @@
       <c r="G138" s="12"/>
       <c r="H138" s="5"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="10"/>
@@ -7710,7 +7740,7 @@
       <c r="G139" s="12"/>
       <c r="H139" s="5"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="10"/>
@@ -7720,7 +7750,7 @@
       <c r="G140" s="12"/>
       <c r="H140" s="5"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="10"/>
@@ -7730,7 +7760,7 @@
       <c r="G141" s="12"/>
       <c r="H141" s="5"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="10"/>
@@ -7740,7 +7770,7 @@
       <c r="G142" s="12"/>
       <c r="H142" s="5"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="10"/>
@@ -7750,7 +7780,7 @@
       <c r="G143" s="12"/>
       <c r="H143" s="5"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="10"/>
@@ -7760,7 +7790,7 @@
       <c r="G144" s="12"/>
       <c r="H144" s="5"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="10"/>
@@ -7770,7 +7800,7 @@
       <c r="G145" s="12"/>
       <c r="H145" s="5"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="10"/>
@@ -7780,7 +7810,7 @@
       <c r="G146" s="12"/>
       <c r="H146" s="5"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="10"/>
@@ -7790,7 +7820,7 @@
       <c r="G147" s="12"/>
       <c r="H147" s="5"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="10"/>
@@ -7800,7 +7830,7 @@
       <c r="G148" s="12"/>
       <c r="H148" s="5"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="10"/>
@@ -7810,7 +7840,7 @@
       <c r="G149" s="12"/>
       <c r="H149" s="5"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="10"/>
@@ -7820,7 +7850,7 @@
       <c r="G150" s="12"/>
       <c r="H150" s="5"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="10"/>
@@ -7830,7 +7860,7 @@
       <c r="G151" s="12"/>
       <c r="H151" s="5"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="10"/>
@@ -7840,7 +7870,7 @@
       <c r="G152" s="12"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="10"/>
@@ -7850,7 +7880,7 @@
       <c r="G153" s="12"/>
       <c r="H153" s="5"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="10"/>
@@ -7860,7 +7890,7 @@
       <c r="G154" s="12"/>
       <c r="H154" s="5"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="10"/>
@@ -7870,7 +7900,7 @@
       <c r="G155" s="12"/>
       <c r="H155" s="5"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="10"/>
@@ -7880,7 +7910,7 @@
       <c r="G156" s="12"/>
       <c r="H156" s="5"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="10"/>
@@ -7890,7 +7920,7 @@
       <c r="G157" s="12"/>
       <c r="H157" s="5"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="10"/>
@@ -7900,7 +7930,7 @@
       <c r="G158" s="12"/>
       <c r="H158" s="5"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="10"/>
@@ -7910,7 +7940,7 @@
       <c r="G159" s="12"/>
       <c r="H159" s="5"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="10"/>
@@ -7920,7 +7950,7 @@
       <c r="G160" s="12"/>
       <c r="H160" s="5"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="10"/>
@@ -7930,7 +7960,7 @@
       <c r="G161" s="12"/>
       <c r="H161" s="5"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="10"/>
@@ -7940,7 +7970,7 @@
       <c r="G162" s="12"/>
       <c r="H162" s="5"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="10"/>
@@ -7950,7 +7980,7 @@
       <c r="G163" s="12"/>
       <c r="H163" s="5"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="10"/>
@@ -7960,7 +7990,7 @@
       <c r="G164" s="12"/>
       <c r="H164" s="5"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="10"/>
@@ -7970,7 +8000,7 @@
       <c r="G165" s="12"/>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="10"/>
@@ -7980,7 +8010,7 @@
       <c r="G166" s="12"/>
       <c r="H166" s="5"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="10"/>
@@ -7990,7 +8020,7 @@
       <c r="G167" s="12"/>
       <c r="H167" s="5"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="10"/>
@@ -8000,7 +8030,7 @@
       <c r="G168" s="12"/>
       <c r="H168" s="5"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="10"/>
@@ -8010,7 +8040,7 @@
       <c r="G169" s="12"/>
       <c r="H169" s="5"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="10"/>
@@ -8020,7 +8050,7 @@
       <c r="G170" s="12"/>
       <c r="H170" s="5"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="10"/>
@@ -8030,7 +8060,7 @@
       <c r="G171" s="12"/>
       <c r="H171" s="5"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="10"/>
@@ -8040,7 +8070,7 @@
       <c r="G172" s="12"/>
       <c r="H172" s="5"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="10"/>
@@ -8050,7 +8080,7 @@
       <c r="G173" s="12"/>
       <c r="H173" s="5"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="10"/>
@@ -8060,7 +8090,7 @@
       <c r="G174" s="12"/>
       <c r="H174" s="5"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="10"/>
@@ -8070,7 +8100,7 @@
       <c r="G175" s="12"/>
       <c r="H175" s="5"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="10"/>
@@ -8080,7 +8110,7 @@
       <c r="G176" s="12"/>
       <c r="H176" s="5"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="10"/>
@@ -8090,7 +8120,7 @@
       <c r="G177" s="12"/>
       <c r="H177" s="5"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="10"/>
@@ -8100,7 +8130,7 @@
       <c r="G178" s="12"/>
       <c r="H178" s="5"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="10"/>
@@ -8110,7 +8140,7 @@
       <c r="G179" s="12"/>
       <c r="H179" s="5"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="10"/>
@@ -8120,7 +8150,7 @@
       <c r="G180" s="12"/>
       <c r="H180" s="5"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="10"/>
@@ -8130,7 +8160,7 @@
       <c r="G181" s="12"/>
       <c r="H181" s="5"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="10"/>
@@ -8140,7 +8170,7 @@
       <c r="G182" s="12"/>
       <c r="H182" s="5"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="10"/>
@@ -8150,7 +8180,7 @@
       <c r="G183" s="12"/>
       <c r="H183" s="5"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="10"/>
@@ -8160,7 +8190,7 @@
       <c r="G184" s="12"/>
       <c r="H184" s="5"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="10"/>
@@ -8170,7 +8200,7 @@
       <c r="G185" s="12"/>
       <c r="H185" s="5"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="10"/>
@@ -8180,7 +8210,7 @@
       <c r="G186" s="12"/>
       <c r="H186" s="5"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="10"/>
@@ -8190,7 +8220,7 @@
       <c r="G187" s="12"/>
       <c r="H187" s="5"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="10"/>
@@ -8200,7 +8230,7 @@
       <c r="G188" s="12"/>
       <c r="H188" s="5"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="10"/>
@@ -8210,7 +8240,7 @@
       <c r="G189" s="12"/>
       <c r="H189" s="5"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="10"/>
@@ -8220,7 +8250,7 @@
       <c r="G190" s="12"/>
       <c r="H190" s="5"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="10"/>
@@ -8230,7 +8260,7 @@
       <c r="G191" s="12"/>
       <c r="H191" s="5"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="10"/>
@@ -8240,7 +8270,7 @@
       <c r="G192" s="12"/>
       <c r="H192" s="5"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="10"/>
@@ -8250,7 +8280,7 @@
       <c r="G193" s="12"/>
       <c r="H193" s="5"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="10"/>
@@ -8260,7 +8290,7 @@
       <c r="G194" s="12"/>
       <c r="H194" s="5"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="10"/>
@@ -8270,7 +8300,7 @@
       <c r="G195" s="12"/>
       <c r="H195" s="5"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="10"/>
@@ -8280,7 +8310,7 @@
       <c r="G196" s="12"/>
       <c r="H196" s="5"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="10"/>
@@ -8290,7 +8320,7 @@
       <c r="G197" s="12"/>
       <c r="H197" s="5"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="10"/>
@@ -8300,7 +8330,7 @@
       <c r="G198" s="12"/>
       <c r="H198" s="5"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="10"/>
@@ -8310,7 +8340,7 @@
       <c r="G199" s="12"/>
       <c r="H199" s="5"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="10"/>
@@ -8320,7 +8350,7 @@
       <c r="G200" s="12"/>
       <c r="H200" s="5"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="10"/>
@@ -8358,16 +8388,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.7265625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
@@ -8384,1400 +8414,1400 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="12"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="12"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="12"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="12"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="12"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="12"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="12"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="12"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="12"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="12"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="12"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="12"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="12"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="12"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="12"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="12"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="12"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="12"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="12"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="12"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="12"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="12"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="12"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="12"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="12"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="12"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="12"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="12"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="12"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="12"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="12"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="12"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="12"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="12"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="12"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="12"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="12"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="12"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="12"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="12"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="12"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="12"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="12"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="12"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="12"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="12"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="12"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="12"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="12"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="12"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="12"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="12"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="12"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="12"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="12"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="12"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="12"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="12"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="12"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="12"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="12"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="12"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="12"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="12"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="12"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="12"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="12"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="12"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="12"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="12"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="12"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="12"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="12"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="12"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="12"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="12"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="12"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="12"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
       <c r="D93" s="12"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="12"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="12"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="12"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="12"/>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="12"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="12"/>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="12"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="12"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="12"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="12"/>
       <c r="E103" s="6"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="12"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="12"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="12"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="12"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="12"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="12"/>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="12"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="12"/>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="12"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="12"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="12"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="12"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="12"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="12"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="12"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="12"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="12"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="12"/>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="12"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="12"/>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="12"/>
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
       <c r="D125" s="12"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="12"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
       <c r="D127" s="12"/>
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
       <c r="D128" s="12"/>
       <c r="E128" s="6"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
       <c r="D129" s="12"/>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
       <c r="D130" s="12"/>
       <c r="E130" s="6"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
       <c r="D131" s="12"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
       <c r="D132" s="12"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
       <c r="D133" s="12"/>
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
       <c r="D134" s="12"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
       <c r="D135" s="12"/>
       <c r="E135" s="6"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
       <c r="D136" s="12"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
       <c r="D137" s="12"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
       <c r="D138" s="12"/>
       <c r="E138" s="6"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
       <c r="D139" s="12"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
       <c r="D140" s="12"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
       <c r="D141" s="12"/>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
       <c r="D142" s="12"/>
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
       <c r="D143" s="12"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
       <c r="D144" s="12"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
       <c r="D145" s="12"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
       <c r="D146" s="12"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
       <c r="D147" s="12"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
       <c r="D148" s="12"/>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
       <c r="D149" s="12"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
       <c r="D150" s="12"/>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
       <c r="D151" s="12"/>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
       <c r="D152" s="12"/>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
       <c r="D153" s="12"/>
       <c r="E153" s="6"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
       <c r="D154" s="12"/>
       <c r="E154" s="6"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
       <c r="D155" s="12"/>
       <c r="E155" s="6"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
       <c r="D156" s="12"/>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
       <c r="D157" s="12"/>
       <c r="E157" s="6"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
       <c r="D158" s="12"/>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
       <c r="D159" s="12"/>
       <c r="E159" s="6"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
       <c r="D160" s="12"/>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
       <c r="D161" s="12"/>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
       <c r="D162" s="12"/>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
       <c r="D163" s="12"/>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
       <c r="D164" s="12"/>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
       <c r="D165" s="12"/>
       <c r="E165" s="6"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
       <c r="D166" s="12"/>
       <c r="E166" s="6"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
       <c r="D167" s="12"/>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
       <c r="D168" s="12"/>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
       <c r="D169" s="12"/>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
       <c r="D170" s="12"/>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
       <c r="D171" s="12"/>
       <c r="E171" s="6"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
       <c r="D172" s="12"/>
       <c r="E172" s="6"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
       <c r="D173" s="12"/>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
       <c r="D174" s="12"/>
       <c r="E174" s="6"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
       <c r="D175" s="12"/>
       <c r="E175" s="6"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
       <c r="D176" s="12"/>
       <c r="E176" s="6"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
       <c r="D177" s="12"/>
       <c r="E177" s="6"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
       <c r="D178" s="12"/>
       <c r="E178" s="6"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
       <c r="D179" s="12"/>
       <c r="E179" s="6"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
       <c r="D180" s="12"/>
       <c r="E180" s="6"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
       <c r="D181" s="12"/>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
       <c r="D182" s="12"/>
       <c r="E182" s="6"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
       <c r="D183" s="12"/>
       <c r="E183" s="6"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
       <c r="D184" s="12"/>
       <c r="E184" s="6"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
       <c r="D185" s="12"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
       <c r="D186" s="12"/>
       <c r="E186" s="6"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
       <c r="D187" s="12"/>
       <c r="E187" s="6"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
       <c r="D188" s="12"/>
       <c r="E188" s="6"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
       <c r="D189" s="12"/>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
       <c r="D190" s="12"/>
       <c r="E190" s="6"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
       <c r="D191" s="12"/>
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
       <c r="D192" s="12"/>
       <c r="E192" s="6"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
       <c r="D193" s="12"/>
       <c r="E193" s="6"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
       <c r="D194" s="12"/>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
       <c r="D195" s="12"/>
       <c r="E195" s="6"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
       <c r="D196" s="12"/>
       <c r="E196" s="6"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
       <c r="D197" s="12"/>
       <c r="E197" s="6"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
       <c r="D198" s="12"/>
       <c r="E198" s="6"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
       <c r="D199" s="12"/>
       <c r="E199" s="6"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="12"/>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>

--- a/Workbooks/EN/Robots.xlsx
+++ b/Workbooks/EN/Robots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ED3C3C-39FC-438B-AFBF-968E3C01E807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0FCC3D-3E45-4120-A5DD-C0D2ED75E3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Robot ID</t>
   </si>
@@ -73,23 +73,66 @@
   <si>
     <t>Classic Folder Name</t>
   </si>
+  <si>
+    <t>Logging Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allow Development Logging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login to Console</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolution Width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolution Height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolution Depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Font Smoothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Download Processes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -290,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -349,9 +392,6 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -367,35 +407,583 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="51">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="5"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </left>
         <right style="thin">
-          <color theme="5"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </right>
         <top style="thin">
-          <color theme="5"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </top>
         <bottom style="thin">
-          <color theme="5"/>
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -901,312 +1489,35 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1222,68 +1533,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="42" dataDxfId="40" totalsRowDxfId="38" headerRowBorderDxfId="41" tableBorderDxfId="39">
-  <autoFilter ref="A1:J201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="Classic Folder ID" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="Classic Folder Name" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="Robot ID" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Robot Name" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="Machine ID" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Machine Name" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Environments" dataDxfId="31"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Hosting Type" totalsRowLabel="Total" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Robot Type" totalsRowFunction="count" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Username" dataDxfId="28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:R201" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+  <autoFilter ref="A1:R201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="Classic Folder ID" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="Classic Folder Name" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="Robot ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Robot Name" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="Machine ID" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Machine Name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Environments" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Hosting Type" totalsRowLabel="Total" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Robot Type" totalsRowFunction="count" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{5EFC1BB3-6990-460F-ABD6-81FDFAC25684}" name="Username" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{182D5CAA-95B1-44EF-92D3-4FCFEBA71873}" name="Logging Level" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{D79BC773-A07E-4D39-B484-BFC0DDA92820}" name="Allow Development Logging" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{B7F99414-218A-4082-A039-64D598227125}" name="Login to Console" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{50EDC573-78B0-41C2-A34C-82BE7FF0D627}" name="Resolution Width" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{3D7EC743-9A17-4D0F-843F-909806FBF633}" name="Resolution Height" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{6AE6A811-DF60-4BB7-AAD8-42BD4E625BFD}" name="Resolution Depth" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{086E792E-DBEF-4A10-8BB2-E8F27DBFD2DB}" name="Font Smoothing" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Auto Download Processes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{82AA4CBE-9BAD-48BE-8F36-82CAC11AD1A8}" name="Classic Folder Name" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="Hosting Type" dataDxfId="25"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Robot Name" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="Machine Name" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Robot Type" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Username" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="Password" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Robot ID" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{82AA4CBE-9BAD-48BE-8F36-82CAC11AD1A8}" name="Classic Folder Name" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="Hosting Type" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Robot Name" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="Machine Name" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Robot Type" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Username" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="Password" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Robot ID" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="Classic Folder Name" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="Robot ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Robot Name" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="Machine Name" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="Robot Type" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="Username" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="Result" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="Classic Folder Name" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="Robot ID" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Robot Name" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="Machine Name" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="Robot Type" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="Username" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="Result" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="Classic Folder ID" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="Classic Folder Name" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="Robot ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Robot Name" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="Classic Folder ID" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="Classic Folder Name" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="Robot ID" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Robot Name" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1552,36 +1871,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="25.7109375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="2"/>
-    <col min="14" max="14" width="20.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="2"/>
-    <col min="16" max="16" width="18" style="2" customWidth="1"/>
-    <col min="17" max="17" width="26.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="2"/>
-    <col min="19" max="19" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="17.75" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="29" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="29" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="25" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="25" customWidth="1"/>
+    <col min="6" max="7" width="25.75" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="29" customWidth="1"/>
+    <col min="9" max="10" width="15.75" style="30" customWidth="1"/>
+    <col min="11" max="18" width="25.75" style="5" customWidth="1"/>
+    <col min="19" max="19" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.83203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.75" style="2"/>
+    <col min="22" max="22" width="20.58203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="8.75" style="2"/>
+    <col min="24" max="24" width="18" style="2" customWidth="1"/>
+    <col min="25" max="25" width="26.4140625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="8.75" style="2"/>
+    <col min="27" max="27" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
@@ -1610,10 +1930,34 @@
         <v>6</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1625,7 +1969,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1637,7 +1981,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1649,7 +1993,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1661,7 +2005,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1673,7 +2017,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1685,7 +2029,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1697,7 +2041,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1709,7 +2053,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1721,7 +2065,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1733,7 +2077,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="15"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1745,7 +2089,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="15"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1757,7 +2101,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1769,7 +2113,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="15"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1779,9 +2123,9 @@
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1791,9 +2135,9 @@
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="15"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1803,9 +2147,9 @@
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="15"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1815,9 +2159,9 @@
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="15"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1827,9 +2171,9 @@
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="15"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1839,9 +2183,9 @@
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="15"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1851,9 +2195,9 @@
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="15"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1863,9 +2207,9 @@
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="15"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1875,9 +2219,9 @@
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="15"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1887,9 +2231,9 @@
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="15"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1899,9 +2243,9 @@
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="15"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1911,9 +2255,9 @@
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="15"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1923,9 +2267,9 @@
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="26"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="15"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1935,9 +2279,9 @@
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
       <c r="I28" s="16"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="15"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1947,9 +2291,9 @@
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
       <c r="I29" s="16"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="26"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="15"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1959,9 +2303,9 @@
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
       <c r="I30" s="16"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="15"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1971,9 +2315,9 @@
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
       <c r="I31" s="16"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="15"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1983,9 +2327,9 @@
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
       <c r="I32" s="16"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="26"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="15"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1995,9 +2339,9 @@
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
       <c r="I33" s="16"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="15"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2007,9 +2351,9 @@
       <c r="G34" s="5"/>
       <c r="H34" s="6"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="15"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2019,9 +2363,9 @@
       <c r="G35" s="5"/>
       <c r="H35" s="6"/>
       <c r="I35" s="16"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="15"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2031,9 +2375,9 @@
       <c r="G36" s="5"/>
       <c r="H36" s="6"/>
       <c r="I36" s="16"/>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="26"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="15"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2043,9 +2387,9 @@
       <c r="G37" s="5"/>
       <c r="H37" s="6"/>
       <c r="I37" s="16"/>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="26"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="15"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2055,9 +2399,9 @@
       <c r="G38" s="5"/>
       <c r="H38" s="6"/>
       <c r="I38" s="16"/>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="26"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="15"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2067,9 +2411,9 @@
       <c r="G39" s="5"/>
       <c r="H39" s="6"/>
       <c r="I39" s="16"/>
-      <c r="J39" s="7"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="15"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2079,9 +2423,9 @@
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
       <c r="I40" s="16"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="15"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2091,9 +2435,9 @@
       <c r="G41" s="5"/>
       <c r="H41" s="6"/>
       <c r="I41" s="16"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="26"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="15"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2103,9 +2447,9 @@
       <c r="G42" s="5"/>
       <c r="H42" s="6"/>
       <c r="I42" s="16"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="15"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2115,9 +2459,9 @@
       <c r="G43" s="5"/>
       <c r="H43" s="6"/>
       <c r="I43" s="16"/>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="15"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2127,9 +2471,9 @@
       <c r="G44" s="5"/>
       <c r="H44" s="6"/>
       <c r="I44" s="16"/>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J44" s="26"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="15"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2139,9 +2483,9 @@
       <c r="G45" s="5"/>
       <c r="H45" s="6"/>
       <c r="I45" s="16"/>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J45" s="26"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="15"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2151,9 +2495,9 @@
       <c r="G46" s="5"/>
       <c r="H46" s="6"/>
       <c r="I46" s="16"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J46" s="26"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="15"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2163,9 +2507,9 @@
       <c r="G47" s="5"/>
       <c r="H47" s="6"/>
       <c r="I47" s="16"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J47" s="26"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="15"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2175,9 +2519,9 @@
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
       <c r="I48" s="16"/>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="15"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2187,9 +2531,9 @@
       <c r="G49" s="5"/>
       <c r="H49" s="6"/>
       <c r="I49" s="16"/>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="15"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2199,9 +2543,9 @@
       <c r="G50" s="5"/>
       <c r="H50" s="6"/>
       <c r="I50" s="16"/>
-      <c r="J50" s="7"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J50" s="26"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="15"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2211,9 +2555,9 @@
       <c r="G51" s="5"/>
       <c r="H51" s="6"/>
       <c r="I51" s="16"/>
-      <c r="J51" s="7"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="15"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2223,9 +2567,9 @@
       <c r="G52" s="5"/>
       <c r="H52" s="6"/>
       <c r="I52" s="16"/>
-      <c r="J52" s="7"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="15"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2235,9 +2579,9 @@
       <c r="G53" s="5"/>
       <c r="H53" s="6"/>
       <c r="I53" s="16"/>
-      <c r="J53" s="7"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J53" s="26"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="15"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2247,9 +2591,9 @@
       <c r="G54" s="5"/>
       <c r="H54" s="6"/>
       <c r="I54" s="16"/>
-      <c r="J54" s="7"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J54" s="26"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="15"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2259,9 +2603,9 @@
       <c r="G55" s="5"/>
       <c r="H55" s="6"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="7"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J55" s="26"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="15"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2271,9 +2615,9 @@
       <c r="G56" s="5"/>
       <c r="H56" s="6"/>
       <c r="I56" s="16"/>
-      <c r="J56" s="7"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J56" s="26"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="15"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2283,9 +2627,9 @@
       <c r="G57" s="5"/>
       <c r="H57" s="6"/>
       <c r="I57" s="16"/>
-      <c r="J57" s="7"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="15"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2295,9 +2639,9 @@
       <c r="G58" s="5"/>
       <c r="H58" s="6"/>
       <c r="I58" s="16"/>
-      <c r="J58" s="7"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="15"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2307,9 +2651,9 @@
       <c r="G59" s="5"/>
       <c r="H59" s="6"/>
       <c r="I59" s="16"/>
-      <c r="J59" s="7"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J59" s="26"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="15"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2319,9 +2663,9 @@
       <c r="G60" s="5"/>
       <c r="H60" s="6"/>
       <c r="I60" s="16"/>
-      <c r="J60" s="7"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="15"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2331,9 +2675,9 @@
       <c r="G61" s="5"/>
       <c r="H61" s="6"/>
       <c r="I61" s="16"/>
-      <c r="J61" s="7"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="15"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2343,9 +2687,9 @@
       <c r="G62" s="5"/>
       <c r="H62" s="6"/>
       <c r="I62" s="16"/>
-      <c r="J62" s="7"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J62" s="26"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="15"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2355,9 +2699,9 @@
       <c r="G63" s="5"/>
       <c r="H63" s="6"/>
       <c r="I63" s="16"/>
-      <c r="J63" s="7"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J63" s="26"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="15"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2367,9 +2711,9 @@
       <c r="G64" s="5"/>
       <c r="H64" s="6"/>
       <c r="I64" s="16"/>
-      <c r="J64" s="7"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J64" s="26"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="15"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2379,9 +2723,9 @@
       <c r="G65" s="5"/>
       <c r="H65" s="6"/>
       <c r="I65" s="16"/>
-      <c r="J65" s="7"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J65" s="26"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="15"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2391,9 +2735,9 @@
       <c r="G66" s="5"/>
       <c r="H66" s="6"/>
       <c r="I66" s="16"/>
-      <c r="J66" s="7"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J66" s="26"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="15"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2403,9 +2747,9 @@
       <c r="G67" s="5"/>
       <c r="H67" s="6"/>
       <c r="I67" s="16"/>
-      <c r="J67" s="7"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J67" s="26"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="15"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2415,9 +2759,9 @@
       <c r="G68" s="5"/>
       <c r="H68" s="6"/>
       <c r="I68" s="16"/>
-      <c r="J68" s="7"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J68" s="26"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="15"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2427,9 +2771,9 @@
       <c r="G69" s="5"/>
       <c r="H69" s="6"/>
       <c r="I69" s="16"/>
-      <c r="J69" s="7"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J69" s="26"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="15"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2439,9 +2783,9 @@
       <c r="G70" s="5"/>
       <c r="H70" s="6"/>
       <c r="I70" s="16"/>
-      <c r="J70" s="7"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J70" s="26"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="15"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2451,9 +2795,9 @@
       <c r="G71" s="5"/>
       <c r="H71" s="6"/>
       <c r="I71" s="16"/>
-      <c r="J71" s="7"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J71" s="26"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="15"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2463,9 +2807,9 @@
       <c r="G72" s="5"/>
       <c r="H72" s="6"/>
       <c r="I72" s="16"/>
-      <c r="J72" s="7"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J72" s="26"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="15"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2475,9 +2819,9 @@
       <c r="G73" s="5"/>
       <c r="H73" s="6"/>
       <c r="I73" s="16"/>
-      <c r="J73" s="7"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J73" s="26"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="15"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2487,9 +2831,9 @@
       <c r="G74" s="5"/>
       <c r="H74" s="6"/>
       <c r="I74" s="16"/>
-      <c r="J74" s="7"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J74" s="26"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="15"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2499,9 +2843,9 @@
       <c r="G75" s="5"/>
       <c r="H75" s="6"/>
       <c r="I75" s="16"/>
-      <c r="J75" s="7"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J75" s="26"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="15"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2511,9 +2855,9 @@
       <c r="G76" s="5"/>
       <c r="H76" s="6"/>
       <c r="I76" s="16"/>
-      <c r="J76" s="7"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J76" s="26"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="15"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2523,9 +2867,9 @@
       <c r="G77" s="5"/>
       <c r="H77" s="6"/>
       <c r="I77" s="16"/>
-      <c r="J77" s="7"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J77" s="26"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="15"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2535,9 +2879,9 @@
       <c r="G78" s="5"/>
       <c r="H78" s="6"/>
       <c r="I78" s="16"/>
-      <c r="J78" s="7"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J78" s="26"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="15"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2547,9 +2891,9 @@
       <c r="G79" s="5"/>
       <c r="H79" s="6"/>
       <c r="I79" s="16"/>
-      <c r="J79" s="7"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J79" s="26"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="15"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2559,9 +2903,9 @@
       <c r="G80" s="5"/>
       <c r="H80" s="6"/>
       <c r="I80" s="16"/>
-      <c r="J80" s="7"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J80" s="26"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="15"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2571,9 +2915,9 @@
       <c r="G81" s="5"/>
       <c r="H81" s="6"/>
       <c r="I81" s="16"/>
-      <c r="J81" s="7"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J81" s="26"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="15"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2583,9 +2927,9 @@
       <c r="G82" s="5"/>
       <c r="H82" s="6"/>
       <c r="I82" s="16"/>
-      <c r="J82" s="7"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J82" s="26"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="15"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2595,9 +2939,9 @@
       <c r="G83" s="5"/>
       <c r="H83" s="6"/>
       <c r="I83" s="16"/>
-      <c r="J83" s="7"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J83" s="26"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="15"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2607,9 +2951,9 @@
       <c r="G84" s="5"/>
       <c r="H84" s="6"/>
       <c r="I84" s="16"/>
-      <c r="J84" s="7"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J84" s="26"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="15"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2619,9 +2963,9 @@
       <c r="G85" s="5"/>
       <c r="H85" s="6"/>
       <c r="I85" s="16"/>
-      <c r="J85" s="7"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J85" s="26"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="15"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2631,9 +2975,9 @@
       <c r="G86" s="5"/>
       <c r="H86" s="6"/>
       <c r="I86" s="16"/>
-      <c r="J86" s="7"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J86" s="26"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="15"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2643,9 +2987,9 @@
       <c r="G87" s="5"/>
       <c r="H87" s="6"/>
       <c r="I87" s="16"/>
-      <c r="J87" s="7"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J87" s="26"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="15"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2655,9 +2999,9 @@
       <c r="G88" s="5"/>
       <c r="H88" s="6"/>
       <c r="I88" s="16"/>
-      <c r="J88" s="7"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J88" s="26"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="15"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2667,9 +3011,9 @@
       <c r="G89" s="5"/>
       <c r="H89" s="6"/>
       <c r="I89" s="16"/>
-      <c r="J89" s="7"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J89" s="26"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="15"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2679,9 +3023,9 @@
       <c r="G90" s="5"/>
       <c r="H90" s="6"/>
       <c r="I90" s="16"/>
-      <c r="J90" s="7"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J90" s="26"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="15"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2691,9 +3035,9 @@
       <c r="G91" s="5"/>
       <c r="H91" s="6"/>
       <c r="I91" s="16"/>
-      <c r="J91" s="7"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J91" s="26"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="15"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -2703,9 +3047,9 @@
       <c r="G92" s="5"/>
       <c r="H92" s="6"/>
       <c r="I92" s="16"/>
-      <c r="J92" s="7"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J92" s="26"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="15"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2715,9 +3059,9 @@
       <c r="G93" s="5"/>
       <c r="H93" s="6"/>
       <c r="I93" s="16"/>
-      <c r="J93" s="7"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J93" s="26"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="15"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -2727,9 +3071,9 @@
       <c r="G94" s="5"/>
       <c r="H94" s="6"/>
       <c r="I94" s="16"/>
-      <c r="J94" s="7"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J94" s="26"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="15"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -2739,9 +3083,9 @@
       <c r="G95" s="5"/>
       <c r="H95" s="6"/>
       <c r="I95" s="16"/>
-      <c r="J95" s="7"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J95" s="26"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="15"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -2751,9 +3095,9 @@
       <c r="G96" s="5"/>
       <c r="H96" s="6"/>
       <c r="I96" s="16"/>
-      <c r="J96" s="7"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J96" s="26"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="15"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -2763,9 +3107,9 @@
       <c r="G97" s="5"/>
       <c r="H97" s="6"/>
       <c r="I97" s="16"/>
-      <c r="J97" s="7"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J97" s="26"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="15"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -2775,9 +3119,9 @@
       <c r="G98" s="5"/>
       <c r="H98" s="6"/>
       <c r="I98" s="16"/>
-      <c r="J98" s="7"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J98" s="26"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="15"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -2787,9 +3131,9 @@
       <c r="G99" s="5"/>
       <c r="H99" s="6"/>
       <c r="I99" s="16"/>
-      <c r="J99" s="7"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J99" s="26"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="15"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -2799,9 +3143,9 @@
       <c r="G100" s="5"/>
       <c r="H100" s="6"/>
       <c r="I100" s="16"/>
-      <c r="J100" s="7"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J100" s="26"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="15"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2811,9 +3155,9 @@
       <c r="G101" s="5"/>
       <c r="H101" s="6"/>
       <c r="I101" s="16"/>
-      <c r="J101" s="7"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J101" s="26"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="15"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -2823,9 +3167,9 @@
       <c r="G102" s="6"/>
       <c r="H102" s="5"/>
       <c r="I102" s="17"/>
-      <c r="J102" s="7"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J102" s="27"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="15"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -2835,9 +3179,9 @@
       <c r="G103" s="6"/>
       <c r="H103" s="5"/>
       <c r="I103" s="17"/>
-      <c r="J103" s="7"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J103" s="27"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="15"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -2847,9 +3191,9 @@
       <c r="G104" s="6"/>
       <c r="H104" s="5"/>
       <c r="I104" s="17"/>
-      <c r="J104" s="7"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J104" s="27"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="15"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -2859,9 +3203,9 @@
       <c r="G105" s="6"/>
       <c r="H105" s="5"/>
       <c r="I105" s="17"/>
-      <c r="J105" s="7"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J105" s="27"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="15"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -2871,9 +3215,9 @@
       <c r="G106" s="6"/>
       <c r="H106" s="5"/>
       <c r="I106" s="17"/>
-      <c r="J106" s="7"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J106" s="27"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="15"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -2883,9 +3227,9 @@
       <c r="G107" s="6"/>
       <c r="H107" s="5"/>
       <c r="I107" s="17"/>
-      <c r="J107" s="7"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J107" s="27"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="15"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -2895,9 +3239,9 @@
       <c r="G108" s="6"/>
       <c r="H108" s="5"/>
       <c r="I108" s="17"/>
-      <c r="J108" s="7"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J108" s="27"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="15"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -2907,9 +3251,9 @@
       <c r="G109" s="6"/>
       <c r="H109" s="5"/>
       <c r="I109" s="17"/>
-      <c r="J109" s="7"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J109" s="27"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="15"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -2919,9 +3263,9 @@
       <c r="G110" s="6"/>
       <c r="H110" s="5"/>
       <c r="I110" s="17"/>
-      <c r="J110" s="7"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J110" s="27"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="15"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -2931,9 +3275,9 @@
       <c r="G111" s="6"/>
       <c r="H111" s="5"/>
       <c r="I111" s="17"/>
-      <c r="J111" s="7"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J111" s="27"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="15"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -2943,9 +3287,9 @@
       <c r="G112" s="6"/>
       <c r="H112" s="5"/>
       <c r="I112" s="17"/>
-      <c r="J112" s="7"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J112" s="27"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="15"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -2955,9 +3299,9 @@
       <c r="G113" s="6"/>
       <c r="H113" s="5"/>
       <c r="I113" s="17"/>
-      <c r="J113" s="7"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J113" s="27"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="15"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -2967,9 +3311,9 @@
       <c r="G114" s="6"/>
       <c r="H114" s="5"/>
       <c r="I114" s="17"/>
-      <c r="J114" s="7"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J114" s="27"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="15"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -2979,9 +3323,9 @@
       <c r="G115" s="6"/>
       <c r="H115" s="5"/>
       <c r="I115" s="17"/>
-      <c r="J115" s="7"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J115" s="27"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="15"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -2991,9 +3335,9 @@
       <c r="G116" s="6"/>
       <c r="H116" s="5"/>
       <c r="I116" s="17"/>
-      <c r="J116" s="7"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J116" s="27"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="15"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3003,9 +3347,9 @@
       <c r="G117" s="6"/>
       <c r="H117" s="5"/>
       <c r="I117" s="17"/>
-      <c r="J117" s="7"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J117" s="27"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="15"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3015,9 +3359,9 @@
       <c r="G118" s="6"/>
       <c r="H118" s="5"/>
       <c r="I118" s="17"/>
-      <c r="J118" s="7"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J118" s="27"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="15"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3027,9 +3371,9 @@
       <c r="G119" s="6"/>
       <c r="H119" s="5"/>
       <c r="I119" s="17"/>
-      <c r="J119" s="7"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J119" s="27"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="15"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3039,9 +3383,9 @@
       <c r="G120" s="6"/>
       <c r="H120" s="5"/>
       <c r="I120" s="17"/>
-      <c r="J120" s="7"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J120" s="27"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="15"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3051,9 +3395,9 @@
       <c r="G121" s="6"/>
       <c r="H121" s="5"/>
       <c r="I121" s="17"/>
-      <c r="J121" s="7"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J121" s="27"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="15"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3063,9 +3407,9 @@
       <c r="G122" s="6"/>
       <c r="H122" s="5"/>
       <c r="I122" s="17"/>
-      <c r="J122" s="7"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J122" s="27"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="15"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3075,9 +3419,9 @@
       <c r="G123" s="6"/>
       <c r="H123" s="5"/>
       <c r="I123" s="17"/>
-      <c r="J123" s="7"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J123" s="27"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="15"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3087,9 +3431,9 @@
       <c r="G124" s="6"/>
       <c r="H124" s="5"/>
       <c r="I124" s="17"/>
-      <c r="J124" s="7"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J124" s="27"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="15"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3099,9 +3443,9 @@
       <c r="G125" s="6"/>
       <c r="H125" s="5"/>
       <c r="I125" s="17"/>
-      <c r="J125" s="7"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J125" s="27"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="15"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3111,9 +3455,9 @@
       <c r="G126" s="6"/>
       <c r="H126" s="5"/>
       <c r="I126" s="17"/>
-      <c r="J126" s="7"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J126" s="27"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="15"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3123,9 +3467,9 @@
       <c r="G127" s="6"/>
       <c r="H127" s="5"/>
       <c r="I127" s="17"/>
-      <c r="J127" s="7"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J127" s="27"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="15"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3135,9 +3479,9 @@
       <c r="G128" s="6"/>
       <c r="H128" s="5"/>
       <c r="I128" s="17"/>
-      <c r="J128" s="7"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J128" s="27"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="15"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -3147,9 +3491,9 @@
       <c r="G129" s="6"/>
       <c r="H129" s="5"/>
       <c r="I129" s="17"/>
-      <c r="J129" s="7"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J129" s="27"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="15"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -3159,9 +3503,9 @@
       <c r="G130" s="6"/>
       <c r="H130" s="5"/>
       <c r="I130" s="17"/>
-      <c r="J130" s="7"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J130" s="27"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="15"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -3171,9 +3515,9 @@
       <c r="G131" s="6"/>
       <c r="H131" s="5"/>
       <c r="I131" s="17"/>
-      <c r="J131" s="7"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J131" s="27"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="15"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3183,9 +3527,9 @@
       <c r="G132" s="6"/>
       <c r="H132" s="5"/>
       <c r="I132" s="17"/>
-      <c r="J132" s="7"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J132" s="27"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="15"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3195,9 +3539,9 @@
       <c r="G133" s="6"/>
       <c r="H133" s="5"/>
       <c r="I133" s="17"/>
-      <c r="J133" s="7"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J133" s="27"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="15"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -3207,9 +3551,9 @@
       <c r="G134" s="6"/>
       <c r="H134" s="5"/>
       <c r="I134" s="17"/>
-      <c r="J134" s="7"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J134" s="27"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="15"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -3219,9 +3563,9 @@
       <c r="G135" s="6"/>
       <c r="H135" s="5"/>
       <c r="I135" s="17"/>
-      <c r="J135" s="7"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J135" s="27"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="15"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -3231,9 +3575,9 @@
       <c r="G136" s="6"/>
       <c r="H136" s="5"/>
       <c r="I136" s="17"/>
-      <c r="J136" s="7"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J136" s="27"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="15"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -3243,9 +3587,9 @@
       <c r="G137" s="6"/>
       <c r="H137" s="5"/>
       <c r="I137" s="17"/>
-      <c r="J137" s="7"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J137" s="27"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="15"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -3255,9 +3599,9 @@
       <c r="G138" s="6"/>
       <c r="H138" s="5"/>
       <c r="I138" s="17"/>
-      <c r="J138" s="7"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J138" s="27"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="15"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -3267,9 +3611,9 @@
       <c r="G139" s="6"/>
       <c r="H139" s="5"/>
       <c r="I139" s="17"/>
-      <c r="J139" s="7"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J139" s="27"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="15"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -3279,9 +3623,9 @@
       <c r="G140" s="6"/>
       <c r="H140" s="5"/>
       <c r="I140" s="17"/>
-      <c r="J140" s="7"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J140" s="27"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="15"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -3291,9 +3635,9 @@
       <c r="G141" s="6"/>
       <c r="H141" s="5"/>
       <c r="I141" s="17"/>
-      <c r="J141" s="7"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J141" s="27"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="15"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -3303,9 +3647,9 @@
       <c r="G142" s="6"/>
       <c r="H142" s="5"/>
       <c r="I142" s="17"/>
-      <c r="J142" s="7"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J142" s="27"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="15"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -3315,9 +3659,9 @@
       <c r="G143" s="6"/>
       <c r="H143" s="5"/>
       <c r="I143" s="17"/>
-      <c r="J143" s="7"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J143" s="27"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="15"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -3327,9 +3671,9 @@
       <c r="G144" s="6"/>
       <c r="H144" s="5"/>
       <c r="I144" s="17"/>
-      <c r="J144" s="7"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J144" s="27"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="15"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -3339,9 +3683,9 @@
       <c r="G145" s="6"/>
       <c r="H145" s="5"/>
       <c r="I145" s="17"/>
-      <c r="J145" s="7"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J145" s="27"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="15"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -3351,9 +3695,9 @@
       <c r="G146" s="6"/>
       <c r="H146" s="5"/>
       <c r="I146" s="17"/>
-      <c r="J146" s="7"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J146" s="27"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="15"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -3363,9 +3707,9 @@
       <c r="G147" s="6"/>
       <c r="H147" s="5"/>
       <c r="I147" s="17"/>
-      <c r="J147" s="7"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J147" s="27"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="15"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -3375,9 +3719,9 @@
       <c r="G148" s="6"/>
       <c r="H148" s="5"/>
       <c r="I148" s="17"/>
-      <c r="J148" s="7"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J148" s="27"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="15"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -3387,9 +3731,9 @@
       <c r="G149" s="6"/>
       <c r="H149" s="5"/>
       <c r="I149" s="17"/>
-      <c r="J149" s="7"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J149" s="27"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="15"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -3399,9 +3743,9 @@
       <c r="G150" s="6"/>
       <c r="H150" s="5"/>
       <c r="I150" s="17"/>
-      <c r="J150" s="7"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J150" s="27"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="15"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -3411,9 +3755,9 @@
       <c r="G151" s="6"/>
       <c r="H151" s="5"/>
       <c r="I151" s="17"/>
-      <c r="J151" s="7"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J151" s="27"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="15"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -3423,9 +3767,9 @@
       <c r="G152" s="6"/>
       <c r="H152" s="5"/>
       <c r="I152" s="17"/>
-      <c r="J152" s="7"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J152" s="27"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="15"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -3435,9 +3779,9 @@
       <c r="G153" s="6"/>
       <c r="H153" s="5"/>
       <c r="I153" s="17"/>
-      <c r="J153" s="7"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J153" s="27"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="15"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -3447,9 +3791,9 @@
       <c r="G154" s="6"/>
       <c r="H154" s="5"/>
       <c r="I154" s="17"/>
-      <c r="J154" s="7"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J154" s="27"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="15"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -3459,9 +3803,9 @@
       <c r="G155" s="6"/>
       <c r="H155" s="5"/>
       <c r="I155" s="17"/>
-      <c r="J155" s="7"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J155" s="27"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="15"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3471,9 +3815,9 @@
       <c r="G156" s="6"/>
       <c r="H156" s="5"/>
       <c r="I156" s="17"/>
-      <c r="J156" s="7"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J156" s="27"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="15"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -3483,9 +3827,9 @@
       <c r="G157" s="6"/>
       <c r="H157" s="5"/>
       <c r="I157" s="17"/>
-      <c r="J157" s="7"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J157" s="27"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="15"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -3495,9 +3839,9 @@
       <c r="G158" s="6"/>
       <c r="H158" s="5"/>
       <c r="I158" s="17"/>
-      <c r="J158" s="7"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J158" s="27"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="15"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3507,9 +3851,9 @@
       <c r="G159" s="6"/>
       <c r="H159" s="5"/>
       <c r="I159" s="17"/>
-      <c r="J159" s="7"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J159" s="27"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="15"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -3519,9 +3863,9 @@
       <c r="G160" s="6"/>
       <c r="H160" s="5"/>
       <c r="I160" s="17"/>
-      <c r="J160" s="7"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J160" s="27"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="15"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3531,9 +3875,9 @@
       <c r="G161" s="6"/>
       <c r="H161" s="5"/>
       <c r="I161" s="17"/>
-      <c r="J161" s="7"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J161" s="27"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="15"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -3543,9 +3887,9 @@
       <c r="G162" s="6"/>
       <c r="H162" s="5"/>
       <c r="I162" s="17"/>
-      <c r="J162" s="7"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J162" s="27"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="15"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3555,9 +3899,9 @@
       <c r="G163" s="6"/>
       <c r="H163" s="5"/>
       <c r="I163" s="17"/>
-      <c r="J163" s="7"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J163" s="27"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="15"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3567,9 +3911,9 @@
       <c r="G164" s="6"/>
       <c r="H164" s="5"/>
       <c r="I164" s="17"/>
-      <c r="J164" s="7"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J164" s="27"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="15"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3579,9 +3923,9 @@
       <c r="G165" s="6"/>
       <c r="H165" s="5"/>
       <c r="I165" s="17"/>
-      <c r="J165" s="7"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J165" s="27"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="15"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3591,9 +3935,9 @@
       <c r="G166" s="6"/>
       <c r="H166" s="5"/>
       <c r="I166" s="17"/>
-      <c r="J166" s="7"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J166" s="27"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="15"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3603,9 +3947,9 @@
       <c r="G167" s="6"/>
       <c r="H167" s="5"/>
       <c r="I167" s="17"/>
-      <c r="J167" s="7"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J167" s="27"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="15"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -3615,9 +3959,9 @@
       <c r="G168" s="6"/>
       <c r="H168" s="5"/>
       <c r="I168" s="17"/>
-      <c r="J168" s="7"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J168" s="27"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="15"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -3627,9 +3971,9 @@
       <c r="G169" s="6"/>
       <c r="H169" s="5"/>
       <c r="I169" s="17"/>
-      <c r="J169" s="7"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J169" s="27"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="15"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -3639,9 +3983,9 @@
       <c r="G170" s="6"/>
       <c r="H170" s="5"/>
       <c r="I170" s="17"/>
-      <c r="J170" s="7"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J170" s="27"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="15"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -3651,9 +3995,9 @@
       <c r="G171" s="6"/>
       <c r="H171" s="5"/>
       <c r="I171" s="17"/>
-      <c r="J171" s="7"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J171" s="27"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="15"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -3663,9 +4007,9 @@
       <c r="G172" s="6"/>
       <c r="H172" s="5"/>
       <c r="I172" s="17"/>
-      <c r="J172" s="7"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J172" s="27"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="15"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -3675,9 +4019,9 @@
       <c r="G173" s="6"/>
       <c r="H173" s="5"/>
       <c r="I173" s="17"/>
-      <c r="J173" s="7"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J173" s="27"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="15"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -3687,9 +4031,9 @@
       <c r="G174" s="6"/>
       <c r="H174" s="5"/>
       <c r="I174" s="17"/>
-      <c r="J174" s="7"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J174" s="27"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="15"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -3699,9 +4043,9 @@
       <c r="G175" s="6"/>
       <c r="H175" s="5"/>
       <c r="I175" s="17"/>
-      <c r="J175" s="7"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J175" s="27"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="15"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -3711,9 +4055,9 @@
       <c r="G176" s="6"/>
       <c r="H176" s="5"/>
       <c r="I176" s="17"/>
-      <c r="J176" s="7"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J176" s="27"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="15"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -3723,9 +4067,9 @@
       <c r="G177" s="6"/>
       <c r="H177" s="5"/>
       <c r="I177" s="17"/>
-      <c r="J177" s="7"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J177" s="27"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="15"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -3735,9 +4079,9 @@
       <c r="G178" s="6"/>
       <c r="H178" s="5"/>
       <c r="I178" s="17"/>
-      <c r="J178" s="7"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J178" s="27"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="15"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -3747,9 +4091,9 @@
       <c r="G179" s="6"/>
       <c r="H179" s="5"/>
       <c r="I179" s="17"/>
-      <c r="J179" s="7"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J179" s="27"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="15"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -3759,9 +4103,9 @@
       <c r="G180" s="6"/>
       <c r="H180" s="5"/>
       <c r="I180" s="17"/>
-      <c r="J180" s="7"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J180" s="27"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="15"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -3771,9 +4115,9 @@
       <c r="G181" s="6"/>
       <c r="H181" s="5"/>
       <c r="I181" s="17"/>
-      <c r="J181" s="7"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J181" s="27"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="15"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -3783,9 +4127,9 @@
       <c r="G182" s="6"/>
       <c r="H182" s="5"/>
       <c r="I182" s="17"/>
-      <c r="J182" s="7"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J182" s="27"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="15"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -3795,9 +4139,9 @@
       <c r="G183" s="6"/>
       <c r="H183" s="5"/>
       <c r="I183" s="17"/>
-      <c r="J183" s="7"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J183" s="27"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="15"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -3807,9 +4151,9 @@
       <c r="G184" s="6"/>
       <c r="H184" s="5"/>
       <c r="I184" s="17"/>
-      <c r="J184" s="7"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J184" s="27"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="15"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -3819,9 +4163,9 @@
       <c r="G185" s="6"/>
       <c r="H185" s="5"/>
       <c r="I185" s="17"/>
-      <c r="J185" s="7"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J185" s="27"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="15"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -3831,9 +4175,9 @@
       <c r="G186" s="6"/>
       <c r="H186" s="5"/>
       <c r="I186" s="17"/>
-      <c r="J186" s="7"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J186" s="27"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="15"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -3843,9 +4187,9 @@
       <c r="G187" s="6"/>
       <c r="H187" s="5"/>
       <c r="I187" s="17"/>
-      <c r="J187" s="7"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J187" s="27"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="15"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -3855,9 +4199,9 @@
       <c r="G188" s="6"/>
       <c r="H188" s="5"/>
       <c r="I188" s="17"/>
-      <c r="J188" s="7"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J188" s="27"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="15"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -3867,9 +4211,9 @@
       <c r="G189" s="6"/>
       <c r="H189" s="5"/>
       <c r="I189" s="17"/>
-      <c r="J189" s="7"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J189" s="27"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="15"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -3879,9 +4223,9 @@
       <c r="G190" s="6"/>
       <c r="H190" s="5"/>
       <c r="I190" s="17"/>
-      <c r="J190" s="7"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J190" s="27"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="15"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -3891,9 +4235,9 @@
       <c r="G191" s="6"/>
       <c r="H191" s="5"/>
       <c r="I191" s="17"/>
-      <c r="J191" s="7"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J191" s="27"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="15"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -3903,9 +4247,9 @@
       <c r="G192" s="6"/>
       <c r="H192" s="5"/>
       <c r="I192" s="17"/>
-      <c r="J192" s="7"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J192" s="27"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="15"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -3915,9 +4259,9 @@
       <c r="G193" s="6"/>
       <c r="H193" s="5"/>
       <c r="I193" s="17"/>
-      <c r="J193" s="7"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J193" s="27"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="15"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -3927,9 +4271,9 @@
       <c r="G194" s="6"/>
       <c r="H194" s="5"/>
       <c r="I194" s="17"/>
-      <c r="J194" s="7"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J194" s="27"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="15"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -3939,9 +4283,9 @@
       <c r="G195" s="6"/>
       <c r="H195" s="5"/>
       <c r="I195" s="17"/>
-      <c r="J195" s="7"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J195" s="27"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="15"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -3951,9 +4295,9 @@
       <c r="G196" s="6"/>
       <c r="H196" s="5"/>
       <c r="I196" s="17"/>
-      <c r="J196" s="7"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J196" s="27"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="15"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -3963,9 +4307,9 @@
       <c r="G197" s="6"/>
       <c r="H197" s="5"/>
       <c r="I197" s="17"/>
-      <c r="J197" s="7"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J197" s="27"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="15"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -3975,9 +4319,9 @@
       <c r="G198" s="6"/>
       <c r="H198" s="5"/>
       <c r="I198" s="17"/>
-      <c r="J198" s="7"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J198" s="27"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="15"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -3987,9 +4331,9 @@
       <c r="G199" s="6"/>
       <c r="H199" s="5"/>
       <c r="I199" s="17"/>
-      <c r="J199" s="7"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J199" s="27"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="15"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -3999,9 +4343,9 @@
       <c r="G200" s="6"/>
       <c r="H200" s="5"/>
       <c r="I200" s="17"/>
-      <c r="J200" s="7"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J200" s="27"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="18"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -4011,13 +4355,11 @@
       <c r="G201" s="9"/>
       <c r="H201" s="8"/>
       <c r="I201" s="19"/>
-      <c r="J201" s="20"/>
+      <c r="J201" s="28"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J102:J1048576" xr:uid="{315666C5-0397-470F-A633-C919BAAA5B0E}">
-      <formula1>"Standard,Floating"</formula1>
-    </dataValidation>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="8">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Classic Folder ID" error="Classic Folder ID must be greater than 0." sqref="A2:A1048576" xr:uid="{EB4D44DE-701B-4DE0-8AA9-ED0F71004C11}">
       <formula1>0</formula1>
     </dataValidation>
@@ -4030,8 +4372,18 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Hosting Type" error="Please select a supported Hosting Type." sqref="H2:H1048576" xr:uid="{86919392-48EB-4711-B7E8-F09F11610940}">
       <formula1>"Standard,Floating"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot Type" error="Please select a supported Robot Type." sqref="I2:I1048576" xr:uid="{B29B73DC-4066-4F73-A06D-ECE1441D4F6E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot Type" error="Please select a supported Robot Type." sqref="I2:J1048576" xr:uid="{B29B73DC-4066-4F73-A06D-ECE1441D4F6E}">
       <formula1>"NonProduction,Attended,Unattended,Studio,Development,StudioX,Headless,StudioPro,TestAutomation"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:P1048576" xr:uid="{641B6FE5-8E16-4CFB-AD1A-5D07ABC642F3}">
+      <formula1>0</formula1>
+      <formula2>32767</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{B5A76EF8-DB8B-4508-8C7A-5C427AD1BE1E}">
+      <formula1>"Verbose, Trace, Information, Warning, Error, Critical, Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:R1048576 L2:M1048576" xr:uid="{1257FF10-EAA1-42F6-9E37-7B29A56AB11C}">
+      <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4051,16 +4403,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="25.7109375" style="1" customWidth="1"/>
-    <col min="4" max="7" width="25.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="3" width="25.75" style="1" customWidth="1"/>
+    <col min="4" max="7" width="25.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="45.75" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -4082,15 +4434,15 @@
       <c r="G1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="23"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -4100,7 +4452,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -4111,7 +4463,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4122,7 +4474,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4133,7 +4485,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -4144,7 +4496,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4155,7 +4507,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4166,7 +4518,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4177,7 +4529,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4188,7 +4540,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4199,7 +4551,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -4210,7 +4562,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4221,7 +4573,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4232,7 +4584,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -4243,7 +4595,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -4254,7 +4606,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -4265,7 +4617,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -4276,7 +4628,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -4287,7 +4639,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -4298,7 +4650,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -4309,7 +4661,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4320,7 +4672,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4331,7 +4683,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4342,7 +4694,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -4353,7 +4705,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -4364,7 +4716,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -4375,7 +4727,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -4386,7 +4738,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -4397,7 +4749,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -4408,7 +4760,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -4419,7 +4771,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -4430,7 +4782,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -4441,7 +4793,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -4452,7 +4804,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -4463,7 +4815,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4474,7 +4826,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -4485,7 +4837,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -4496,7 +4848,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -4507,7 +4859,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -4518,7 +4870,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -4529,7 +4881,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4540,7 +4892,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -4551,7 +4903,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -4562,7 +4914,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -4573,7 +4925,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -4584,7 +4936,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -4595,7 +4947,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -4606,7 +4958,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -4617,7 +4969,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -4628,7 +4980,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -4639,7 +4991,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -4650,7 +5002,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -4661,7 +5013,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -4672,7 +5024,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -4683,7 +5035,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -4694,7 +5046,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -4705,7 +5057,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -4716,7 +5068,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -4727,7 +5079,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -4738,7 +5090,7 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -4749,7 +5101,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -4760,7 +5112,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -4771,7 +5123,7 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -4782,7 +5134,7 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -4793,7 +5145,7 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -4804,7 +5156,7 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -4815,7 +5167,7 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -4826,7 +5178,7 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -4837,7 +5189,7 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -4848,7 +5200,7 @@
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -4859,7 +5211,7 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -4870,7 +5222,7 @@
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -4881,7 +5233,7 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -4892,7 +5244,7 @@
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -4903,7 +5255,7 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -4914,7 +5266,7 @@
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -4925,7 +5277,7 @@
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -4936,7 +5288,7 @@
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -4947,7 +5299,7 @@
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -4958,7 +5310,7 @@
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -4969,7 +5321,7 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -4980,7 +5332,7 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -4991,7 +5343,7 @@
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -5002,7 +5354,7 @@
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -5013,7 +5365,7 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -5024,7 +5376,7 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -5035,7 +5387,7 @@
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -5046,7 +5398,7 @@
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -5057,7 +5409,7 @@
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -5068,7 +5420,7 @@
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -5079,7 +5431,7 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -5090,7 +5442,7 @@
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -5101,7 +5453,7 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -5112,7 +5464,7 @@
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -5123,7 +5475,7 @@
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -5134,7 +5486,7 @@
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -5145,7 +5497,7 @@
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -5156,7 +5508,7 @@
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -5167,7 +5519,7 @@
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -5178,7 +5530,7 @@
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -5189,7 +5541,7 @@
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -5200,7 +5552,7 @@
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -5211,7 +5563,7 @@
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -5222,7 +5574,7 @@
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -5233,7 +5585,7 @@
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -5244,7 +5596,7 @@
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -5255,7 +5607,7 @@
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -5266,7 +5618,7 @@
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -5277,7 +5629,7 @@
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -5288,7 +5640,7 @@
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -5299,7 +5651,7 @@
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -5310,7 +5662,7 @@
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -5321,7 +5673,7 @@
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -5332,7 +5684,7 @@
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -5343,7 +5695,7 @@
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -5354,7 +5706,7 @@
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -5365,7 +5717,7 @@
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -5376,7 +5728,7 @@
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -5387,7 +5739,7 @@
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -5398,7 +5750,7 @@
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -5409,7 +5761,7 @@
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -5420,7 +5772,7 @@
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -5431,7 +5783,7 @@
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -5442,7 +5794,7 @@
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -5453,7 +5805,7 @@
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -5464,7 +5816,7 @@
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -5475,7 +5827,7 @@
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -5486,7 +5838,7 @@
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -5497,7 +5849,7 @@
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -5508,7 +5860,7 @@
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -5519,7 +5871,7 @@
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -5530,7 +5882,7 @@
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -5541,7 +5893,7 @@
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -5552,7 +5904,7 @@
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -5563,7 +5915,7 @@
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -5574,7 +5926,7 @@
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -5585,7 +5937,7 @@
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -5596,7 +5948,7 @@
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -5607,7 +5959,7 @@
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -5618,7 +5970,7 @@
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -5629,7 +5981,7 @@
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -5640,7 +5992,7 @@
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -5651,7 +6003,7 @@
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -5662,7 +6014,7 @@
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -5673,7 +6025,7 @@
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -5684,7 +6036,7 @@
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -5695,7 +6047,7 @@
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -5706,7 +6058,7 @@
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -5717,7 +6069,7 @@
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -5728,7 +6080,7 @@
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -5739,7 +6091,7 @@
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -5750,7 +6102,7 @@
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -5761,7 +6113,7 @@
       <c r="H153" s="6"/>
       <c r="I153" s="6"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -5772,7 +6124,7 @@
       <c r="H154" s="6"/>
       <c r="I154" s="6"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -5783,7 +6135,7 @@
       <c r="H155" s="6"/>
       <c r="I155" s="6"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -5794,7 +6146,7 @@
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -5805,7 +6157,7 @@
       <c r="H157" s="6"/>
       <c r="I157" s="6"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -5816,7 +6168,7 @@
       <c r="H158" s="6"/>
       <c r="I158" s="6"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -5827,7 +6179,7 @@
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -5838,7 +6190,7 @@
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -5849,7 +6201,7 @@
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -5860,7 +6212,7 @@
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -5871,7 +6223,7 @@
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -5882,7 +6234,7 @@
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -5893,7 +6245,7 @@
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -5904,7 +6256,7 @@
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -5915,7 +6267,7 @@
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -5926,7 +6278,7 @@
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -5937,7 +6289,7 @@
       <c r="H169" s="6"/>
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -5948,7 +6300,7 @@
       <c r="H170" s="6"/>
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -5959,7 +6311,7 @@
       <c r="H171" s="6"/>
       <c r="I171" s="6"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -5970,7 +6322,7 @@
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -5981,7 +6333,7 @@
       <c r="H173" s="6"/>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -5992,7 +6344,7 @@
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -6003,7 +6355,7 @@
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -6014,7 +6366,7 @@
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -6025,7 +6377,7 @@
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -6036,7 +6388,7 @@
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -6047,7 +6399,7 @@
       <c r="H179" s="6"/>
       <c r="I179" s="6"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -6058,7 +6410,7 @@
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -6069,7 +6421,7 @@
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -6080,7 +6432,7 @@
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -6091,7 +6443,7 @@
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -6102,7 +6454,7 @@
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -6113,7 +6465,7 @@
       <c r="H185" s="6"/>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -6124,7 +6476,7 @@
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -6135,7 +6487,7 @@
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -6146,7 +6498,7 @@
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -6157,7 +6509,7 @@
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -6168,7 +6520,7 @@
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -6179,7 +6531,7 @@
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -6190,7 +6542,7 @@
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -6201,7 +6553,7 @@
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -6212,7 +6564,7 @@
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -6223,7 +6575,7 @@
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -6234,7 +6586,7 @@
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -6245,7 +6597,7 @@
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -6256,7 +6608,7 @@
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -6267,7 +6619,7 @@
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -6278,8 +6630,8 @@
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="25"/>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="24"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
@@ -6321,20 +6673,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="25.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="7" width="25.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="45.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="2"/>
+    <col min="10" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -6356,11 +6708,11 @@
       <c r="G1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="10"/>
@@ -6370,7 +6722,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="10"/>
@@ -6380,7 +6732,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="10"/>
@@ -6390,7 +6742,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="10"/>
@@ -6400,7 +6752,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="10"/>
@@ -6410,7 +6762,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="10"/>
@@ -6420,7 +6772,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
@@ -6430,7 +6782,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="10"/>
@@ -6440,7 +6792,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="10"/>
@@ -6450,7 +6802,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
@@ -6460,7 +6812,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="10"/>
@@ -6470,7 +6822,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
@@ -6480,7 +6832,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
@@ -6490,7 +6842,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
@@ -6500,7 +6852,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
@@ -6510,7 +6862,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="10"/>
@@ -6520,7 +6872,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="10"/>
@@ -6530,7 +6882,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
@@ -6540,7 +6892,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="10"/>
@@ -6550,7 +6902,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="10"/>
@@ -6560,7 +6912,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="10"/>
@@ -6570,7 +6922,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="10"/>
@@ -6580,7 +6932,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="10"/>
@@ -6590,7 +6942,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="10"/>
@@ -6600,7 +6952,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
@@ -6610,7 +6962,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="10"/>
@@ -6620,7 +6972,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
@@ -6630,7 +6982,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
@@ -6640,7 +6992,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
@@ -6650,7 +7002,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="10"/>
@@ -6660,7 +7012,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
@@ -6670,7 +7022,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
@@ -6680,7 +7032,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
@@ -6690,7 +7042,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
@@ -6700,7 +7052,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
@@ -6710,7 +7062,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
@@ -6720,7 +7072,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
@@ -6730,7 +7082,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -6740,7 +7092,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -6750,7 +7102,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
@@ -6760,7 +7112,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
@@ -6770,7 +7122,7 @@
       <c r="G42" s="12"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
@@ -6780,7 +7132,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
@@ -6790,7 +7142,7 @@
       <c r="G44" s="12"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="10"/>
@@ -6800,7 +7152,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="10"/>
@@ -6810,7 +7162,7 @@
       <c r="G46" s="12"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="10"/>
@@ -6820,7 +7172,7 @@
       <c r="G47" s="12"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="10"/>
@@ -6830,7 +7182,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="10"/>
@@ -6840,7 +7192,7 @@
       <c r="G49" s="12"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="10"/>
@@ -6850,7 +7202,7 @@
       <c r="G50" s="12"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="10"/>
@@ -6860,7 +7212,7 @@
       <c r="G51" s="12"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="10"/>
@@ -6870,7 +7222,7 @@
       <c r="G52" s="12"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="10"/>
@@ -6880,7 +7232,7 @@
       <c r="G53" s="12"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="10"/>
@@ -6890,7 +7242,7 @@
       <c r="G54" s="12"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="10"/>
@@ -6900,7 +7252,7 @@
       <c r="G55" s="12"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="10"/>
@@ -6910,7 +7262,7 @@
       <c r="G56" s="12"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="10"/>
@@ -6920,7 +7272,7 @@
       <c r="G57" s="12"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="10"/>
@@ -6930,7 +7282,7 @@
       <c r="G58" s="12"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="10"/>
@@ -6940,7 +7292,7 @@
       <c r="G59" s="12"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="10"/>
@@ -6950,7 +7302,7 @@
       <c r="G60" s="12"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="10"/>
@@ -6960,7 +7312,7 @@
       <c r="G61" s="12"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="10"/>
@@ -6970,7 +7322,7 @@
       <c r="G62" s="12"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="10"/>
@@ -6980,7 +7332,7 @@
       <c r="G63" s="12"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="10"/>
@@ -6990,7 +7342,7 @@
       <c r="G64" s="12"/>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="10"/>
@@ -7000,7 +7352,7 @@
       <c r="G65" s="12"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="10"/>
@@ -7010,7 +7362,7 @@
       <c r="G66" s="12"/>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="10"/>
@@ -7020,7 +7372,7 @@
       <c r="G67" s="12"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="10"/>
@@ -7030,7 +7382,7 @@
       <c r="G68" s="12"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="10"/>
@@ -7040,7 +7392,7 @@
       <c r="G69" s="12"/>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="10"/>
@@ -7050,7 +7402,7 @@
       <c r="G70" s="12"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="10"/>
@@ -7060,7 +7412,7 @@
       <c r="G71" s="12"/>
       <c r="H71" s="5"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="10"/>
@@ -7070,7 +7422,7 @@
       <c r="G72" s="12"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="10"/>
@@ -7080,7 +7432,7 @@
       <c r="G73" s="12"/>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="10"/>
@@ -7090,7 +7442,7 @@
       <c r="G74" s="12"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="10"/>
@@ -7100,7 +7452,7 @@
       <c r="G75" s="12"/>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="10"/>
@@ -7110,7 +7462,7 @@
       <c r="G76" s="12"/>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="10"/>
@@ -7120,7 +7472,7 @@
       <c r="G77" s="12"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="10"/>
@@ -7130,7 +7482,7 @@
       <c r="G78" s="12"/>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="10"/>
@@ -7140,7 +7492,7 @@
       <c r="G79" s="12"/>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="10"/>
@@ -7150,7 +7502,7 @@
       <c r="G80" s="12"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="10"/>
@@ -7160,7 +7512,7 @@
       <c r="G81" s="12"/>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="10"/>
@@ -7170,7 +7522,7 @@
       <c r="G82" s="12"/>
       <c r="H82" s="5"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="10"/>
@@ -7180,7 +7532,7 @@
       <c r="G83" s="12"/>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="10"/>
@@ -7190,7 +7542,7 @@
       <c r="G84" s="12"/>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="10"/>
@@ -7200,7 +7552,7 @@
       <c r="G85" s="12"/>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="10"/>
@@ -7210,7 +7562,7 @@
       <c r="G86" s="12"/>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="10"/>
@@ -7220,7 +7572,7 @@
       <c r="G87" s="12"/>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="10"/>
@@ -7230,7 +7582,7 @@
       <c r="G88" s="12"/>
       <c r="H88" s="5"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="10"/>
@@ -7240,7 +7592,7 @@
       <c r="G89" s="12"/>
       <c r="H89" s="5"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="10"/>
@@ -7250,7 +7602,7 @@
       <c r="G90" s="12"/>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="10"/>
@@ -7260,7 +7612,7 @@
       <c r="G91" s="12"/>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="10"/>
@@ -7270,7 +7622,7 @@
       <c r="G92" s="12"/>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="10"/>
@@ -7280,7 +7632,7 @@
       <c r="G93" s="12"/>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="10"/>
@@ -7290,7 +7642,7 @@
       <c r="G94" s="12"/>
       <c r="H94" s="5"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="10"/>
@@ -7300,7 +7652,7 @@
       <c r="G95" s="12"/>
       <c r="H95" s="5"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="10"/>
@@ -7310,7 +7662,7 @@
       <c r="G96" s="12"/>
       <c r="H96" s="5"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="10"/>
@@ -7320,7 +7672,7 @@
       <c r="G97" s="12"/>
       <c r="H97" s="5"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="10"/>
@@ -7330,7 +7682,7 @@
       <c r="G98" s="12"/>
       <c r="H98" s="5"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="10"/>
@@ -7340,7 +7692,7 @@
       <c r="G99" s="12"/>
       <c r="H99" s="5"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="10"/>
@@ -7350,7 +7702,7 @@
       <c r="G100" s="12"/>
       <c r="H100" s="5"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="10"/>
@@ -7360,7 +7712,7 @@
       <c r="G101" s="12"/>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="10"/>
@@ -7370,7 +7722,7 @@
       <c r="G102" s="12"/>
       <c r="H102" s="5"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="10"/>
@@ -7380,7 +7732,7 @@
       <c r="G103" s="12"/>
       <c r="H103" s="5"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="10"/>
@@ -7390,7 +7742,7 @@
       <c r="G104" s="12"/>
       <c r="H104" s="5"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="10"/>
@@ -7400,7 +7752,7 @@
       <c r="G105" s="12"/>
       <c r="H105" s="5"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="10"/>
@@ -7410,7 +7762,7 @@
       <c r="G106" s="12"/>
       <c r="H106" s="5"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="10"/>
@@ -7420,7 +7772,7 @@
       <c r="G107" s="12"/>
       <c r="H107" s="5"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="10"/>
@@ -7430,7 +7782,7 @@
       <c r="G108" s="12"/>
       <c r="H108" s="5"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="10"/>
@@ -7440,7 +7792,7 @@
       <c r="G109" s="12"/>
       <c r="H109" s="5"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="10"/>
@@ -7450,7 +7802,7 @@
       <c r="G110" s="12"/>
       <c r="H110" s="5"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="10"/>
@@ -7460,7 +7812,7 @@
       <c r="G111" s="12"/>
       <c r="H111" s="5"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="10"/>
@@ -7470,7 +7822,7 @@
       <c r="G112" s="12"/>
       <c r="H112" s="5"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="10"/>
@@ -7480,7 +7832,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="5"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="10"/>
@@ -7490,7 +7842,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="5"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="10"/>
@@ -7500,7 +7852,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="10"/>
@@ -7510,7 +7862,7 @@
       <c r="G116" s="12"/>
       <c r="H116" s="5"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="10"/>
@@ -7520,7 +7872,7 @@
       <c r="G117" s="12"/>
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="10"/>
@@ -7530,7 +7882,7 @@
       <c r="G118" s="12"/>
       <c r="H118" s="5"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="10"/>
@@ -7540,7 +7892,7 @@
       <c r="G119" s="12"/>
       <c r="H119" s="5"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="10"/>
@@ -7550,7 +7902,7 @@
       <c r="G120" s="12"/>
       <c r="H120" s="5"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="10"/>
@@ -7560,7 +7912,7 @@
       <c r="G121" s="12"/>
       <c r="H121" s="5"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="10"/>
@@ -7570,7 +7922,7 @@
       <c r="G122" s="12"/>
       <c r="H122" s="5"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="10"/>
@@ -7580,7 +7932,7 @@
       <c r="G123" s="12"/>
       <c r="H123" s="5"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="10"/>
@@ -7590,7 +7942,7 @@
       <c r="G124" s="12"/>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="10"/>
@@ -7600,7 +7952,7 @@
       <c r="G125" s="12"/>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="10"/>
@@ -7610,7 +7962,7 @@
       <c r="G126" s="12"/>
       <c r="H126" s="5"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="10"/>
@@ -7620,7 +7972,7 @@
       <c r="G127" s="12"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="10"/>
@@ -7630,7 +7982,7 @@
       <c r="G128" s="12"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="10"/>
@@ -7640,7 +7992,7 @@
       <c r="G129" s="12"/>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="10"/>
@@ -7650,7 +8002,7 @@
       <c r="G130" s="12"/>
       <c r="H130" s="5"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="10"/>
@@ -7660,7 +8012,7 @@
       <c r="G131" s="12"/>
       <c r="H131" s="5"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="10"/>
@@ -7670,7 +8022,7 @@
       <c r="G132" s="12"/>
       <c r="H132" s="5"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="10"/>
@@ -7680,7 +8032,7 @@
       <c r="G133" s="12"/>
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="10"/>
@@ -7690,7 +8042,7 @@
       <c r="G134" s="12"/>
       <c r="H134" s="5"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="10"/>
@@ -7700,7 +8052,7 @@
       <c r="G135" s="12"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="10"/>
@@ -7710,7 +8062,7 @@
       <c r="G136" s="12"/>
       <c r="H136" s="5"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="10"/>
@@ -7720,7 +8072,7 @@
       <c r="G137" s="12"/>
       <c r="H137" s="5"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="10"/>
@@ -7730,7 +8082,7 @@
       <c r="G138" s="12"/>
       <c r="H138" s="5"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="10"/>
@@ -7740,7 +8092,7 @@
       <c r="G139" s="12"/>
       <c r="H139" s="5"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="10"/>
@@ -7750,7 +8102,7 @@
       <c r="G140" s="12"/>
       <c r="H140" s="5"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="10"/>
@@ -7760,7 +8112,7 @@
       <c r="G141" s="12"/>
       <c r="H141" s="5"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="10"/>
@@ -7770,7 +8122,7 @@
       <c r="G142" s="12"/>
       <c r="H142" s="5"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="10"/>
@@ -7780,7 +8132,7 @@
       <c r="G143" s="12"/>
       <c r="H143" s="5"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="10"/>
@@ -7790,7 +8142,7 @@
       <c r="G144" s="12"/>
       <c r="H144" s="5"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="10"/>
@@ -7800,7 +8152,7 @@
       <c r="G145" s="12"/>
       <c r="H145" s="5"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="10"/>
@@ -7810,7 +8162,7 @@
       <c r="G146" s="12"/>
       <c r="H146" s="5"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="10"/>
@@ -7820,7 +8172,7 @@
       <c r="G147" s="12"/>
       <c r="H147" s="5"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="10"/>
@@ -7830,7 +8182,7 @@
       <c r="G148" s="12"/>
       <c r="H148" s="5"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="10"/>
@@ -7840,7 +8192,7 @@
       <c r="G149" s="12"/>
       <c r="H149" s="5"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="10"/>
@@ -7850,7 +8202,7 @@
       <c r="G150" s="12"/>
       <c r="H150" s="5"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="10"/>
@@ -7860,7 +8212,7 @@
       <c r="G151" s="12"/>
       <c r="H151" s="5"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="10"/>
@@ -7870,7 +8222,7 @@
       <c r="G152" s="12"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="10"/>
@@ -7880,7 +8232,7 @@
       <c r="G153" s="12"/>
       <c r="H153" s="5"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="10"/>
@@ -7890,7 +8242,7 @@
       <c r="G154" s="12"/>
       <c r="H154" s="5"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="10"/>
@@ -7900,7 +8252,7 @@
       <c r="G155" s="12"/>
       <c r="H155" s="5"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="10"/>
@@ -7910,7 +8262,7 @@
       <c r="G156" s="12"/>
       <c r="H156" s="5"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="10"/>
@@ -7920,7 +8272,7 @@
       <c r="G157" s="12"/>
       <c r="H157" s="5"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="10"/>
@@ -7930,7 +8282,7 @@
       <c r="G158" s="12"/>
       <c r="H158" s="5"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="10"/>
@@ -7940,7 +8292,7 @@
       <c r="G159" s="12"/>
       <c r="H159" s="5"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="10"/>
@@ -7950,7 +8302,7 @@
       <c r="G160" s="12"/>
       <c r="H160" s="5"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="10"/>
@@ -7960,7 +8312,7 @@
       <c r="G161" s="12"/>
       <c r="H161" s="5"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="10"/>
@@ -7970,7 +8322,7 @@
       <c r="G162" s="12"/>
       <c r="H162" s="5"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="10"/>
@@ -7980,7 +8332,7 @@
       <c r="G163" s="12"/>
       <c r="H163" s="5"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="10"/>
@@ -7990,7 +8342,7 @@
       <c r="G164" s="12"/>
       <c r="H164" s="5"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="10"/>
@@ -8000,7 +8352,7 @@
       <c r="G165" s="12"/>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="10"/>
@@ -8010,7 +8362,7 @@
       <c r="G166" s="12"/>
       <c r="H166" s="5"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="10"/>
@@ -8020,7 +8372,7 @@
       <c r="G167" s="12"/>
       <c r="H167" s="5"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="10"/>
@@ -8030,7 +8382,7 @@
       <c r="G168" s="12"/>
       <c r="H168" s="5"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="10"/>
@@ -8040,7 +8392,7 @@
       <c r="G169" s="12"/>
       <c r="H169" s="5"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="10"/>
@@ -8050,7 +8402,7 @@
       <c r="G170" s="12"/>
       <c r="H170" s="5"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="10"/>
@@ -8060,7 +8412,7 @@
       <c r="G171" s="12"/>
       <c r="H171" s="5"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="10"/>
@@ -8070,7 +8422,7 @@
       <c r="G172" s="12"/>
       <c r="H172" s="5"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="10"/>
@@ -8080,7 +8432,7 @@
       <c r="G173" s="12"/>
       <c r="H173" s="5"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="10"/>
@@ -8090,7 +8442,7 @@
       <c r="G174" s="12"/>
       <c r="H174" s="5"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="10"/>
@@ -8100,7 +8452,7 @@
       <c r="G175" s="12"/>
       <c r="H175" s="5"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="10"/>
@@ -8110,7 +8462,7 @@
       <c r="G176" s="12"/>
       <c r="H176" s="5"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="10"/>
@@ -8120,7 +8472,7 @@
       <c r="G177" s="12"/>
       <c r="H177" s="5"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="10"/>
@@ -8130,7 +8482,7 @@
       <c r="G178" s="12"/>
       <c r="H178" s="5"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="10"/>
@@ -8140,7 +8492,7 @@
       <c r="G179" s="12"/>
       <c r="H179" s="5"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="10"/>
@@ -8150,7 +8502,7 @@
       <c r="G180" s="12"/>
       <c r="H180" s="5"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="10"/>
@@ -8160,7 +8512,7 @@
       <c r="G181" s="12"/>
       <c r="H181" s="5"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="10"/>
@@ -8170,7 +8522,7 @@
       <c r="G182" s="12"/>
       <c r="H182" s="5"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="10"/>
@@ -8180,7 +8532,7 @@
       <c r="G183" s="12"/>
       <c r="H183" s="5"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="10"/>
@@ -8190,7 +8542,7 @@
       <c r="G184" s="12"/>
       <c r="H184" s="5"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="10"/>
@@ -8200,7 +8552,7 @@
       <c r="G185" s="12"/>
       <c r="H185" s="5"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="10"/>
@@ -8210,7 +8562,7 @@
       <c r="G186" s="12"/>
       <c r="H186" s="5"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="10"/>
@@ -8220,7 +8572,7 @@
       <c r="G187" s="12"/>
       <c r="H187" s="5"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="10"/>
@@ -8230,7 +8582,7 @@
       <c r="G188" s="12"/>
       <c r="H188" s="5"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="10"/>
@@ -8240,7 +8592,7 @@
       <c r="G189" s="12"/>
       <c r="H189" s="5"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="10"/>
@@ -8250,7 +8602,7 @@
       <c r="G190" s="12"/>
       <c r="H190" s="5"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="10"/>
@@ -8260,7 +8612,7 @@
       <c r="G191" s="12"/>
       <c r="H191" s="5"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="10"/>
@@ -8270,7 +8622,7 @@
       <c r="G192" s="12"/>
       <c r="H192" s="5"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="10"/>
@@ -8280,7 +8632,7 @@
       <c r="G193" s="12"/>
       <c r="H193" s="5"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="10"/>
@@ -8290,7 +8642,7 @@
       <c r="G194" s="12"/>
       <c r="H194" s="5"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="10"/>
@@ -8300,7 +8652,7 @@
       <c r="G195" s="12"/>
       <c r="H195" s="5"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="10"/>
@@ -8310,7 +8662,7 @@
       <c r="G196" s="12"/>
       <c r="H196" s="5"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="10"/>
@@ -8320,7 +8672,7 @@
       <c r="G197" s="12"/>
       <c r="H197" s="5"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="10"/>
@@ -8330,7 +8682,7 @@
       <c r="G198" s="12"/>
       <c r="H198" s="5"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="10"/>
@@ -8340,7 +8692,7 @@
       <c r="G199" s="12"/>
       <c r="H199" s="5"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="10"/>
@@ -8350,7 +8702,7 @@
       <c r="G200" s="12"/>
       <c r="H200" s="5"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="10"/>
@@ -8361,6 +8713,7 @@
       <c r="H201" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C1048576" xr:uid="{63D27801-1665-4DF8-9454-ACFF98F813D0}">
       <formula1>"Text,Bool,Integer,Credential"</formula1>
@@ -8388,16 +8741,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="2" width="25.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.75" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
@@ -8407,1407 +8760,1407 @@
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="12"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="12"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="12"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="12"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="12"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="12"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="12"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="12"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="12"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="12"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="12"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="12"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="12"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="12"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="12"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="12"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="12"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="12"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="12"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="12"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="12"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="12"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="12"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="12"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="12"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="12"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="12"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="12"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="12"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="12"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="12"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="12"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="12"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="12"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="12"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="12"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="12"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="12"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="12"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="12"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="12"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="12"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="12"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="12"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="12"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="12"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="12"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="12"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="12"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="12"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="12"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="12"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="12"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="12"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="12"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="12"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="12"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="12"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="12"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="12"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="12"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="12"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="12"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="12"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="12"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="12"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="12"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="12"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="12"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="12"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="12"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="12"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="12"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="12"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="12"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="12"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="12"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="12"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
       <c r="D93" s="12"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="12"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="12"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="12"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="12"/>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="12"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="12"/>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="12"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="12"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="12"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="12"/>
       <c r="E103" s="6"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="12"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="12"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="12"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="12"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="12"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="12"/>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="12"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="12"/>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="12"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="12"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="12"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="12"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="12"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="12"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="12"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="12"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="12"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="12"/>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="12"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="12"/>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="12"/>
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
       <c r="D125" s="12"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="12"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
       <c r="D127" s="12"/>
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
       <c r="D128" s="12"/>
       <c r="E128" s="6"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
       <c r="D129" s="12"/>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
       <c r="D130" s="12"/>
       <c r="E130" s="6"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
       <c r="D131" s="12"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
       <c r="D132" s="12"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
       <c r="D133" s="12"/>
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
       <c r="D134" s="12"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
       <c r="D135" s="12"/>
       <c r="E135" s="6"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
       <c r="D136" s="12"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
       <c r="D137" s="12"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
       <c r="D138" s="12"/>
       <c r="E138" s="6"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
       <c r="D139" s="12"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
       <c r="D140" s="12"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
       <c r="D141" s="12"/>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
       <c r="D142" s="12"/>
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
       <c r="D143" s="12"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
       <c r="D144" s="12"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
       <c r="D145" s="12"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
       <c r="D146" s="12"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
       <c r="D147" s="12"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
       <c r="D148" s="12"/>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
       <c r="D149" s="12"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
       <c r="D150" s="12"/>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
       <c r="D151" s="12"/>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
       <c r="D152" s="12"/>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
       <c r="D153" s="12"/>
       <c r="E153" s="6"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
       <c r="D154" s="12"/>
       <c r="E154" s="6"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
       <c r="D155" s="12"/>
       <c r="E155" s="6"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
       <c r="D156" s="12"/>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
       <c r="D157" s="12"/>
       <c r="E157" s="6"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
       <c r="D158" s="12"/>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
       <c r="D159" s="12"/>
       <c r="E159" s="6"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
       <c r="D160" s="12"/>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
       <c r="D161" s="12"/>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
       <c r="D162" s="12"/>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
       <c r="D163" s="12"/>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
       <c r="D164" s="12"/>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
       <c r="D165" s="12"/>
       <c r="E165" s="6"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
       <c r="D166" s="12"/>
       <c r="E166" s="6"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
       <c r="D167" s="12"/>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
       <c r="D168" s="12"/>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
       <c r="D169" s="12"/>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
       <c r="D170" s="12"/>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
       <c r="D171" s="12"/>
       <c r="E171" s="6"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
       <c r="D172" s="12"/>
       <c r="E172" s="6"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
       <c r="D173" s="12"/>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
       <c r="D174" s="12"/>
       <c r="E174" s="6"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
       <c r="D175" s="12"/>
       <c r="E175" s="6"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
       <c r="D176" s="12"/>
       <c r="E176" s="6"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
       <c r="D177" s="12"/>
       <c r="E177" s="6"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
       <c r="D178" s="12"/>
       <c r="E178" s="6"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
       <c r="D179" s="12"/>
       <c r="E179" s="6"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
       <c r="D180" s="12"/>
       <c r="E180" s="6"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
       <c r="D181" s="12"/>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
       <c r="D182" s="12"/>
       <c r="E182" s="6"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
       <c r="D183" s="12"/>
       <c r="E183" s="6"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
       <c r="D184" s="12"/>
       <c r="E184" s="6"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
       <c r="D185" s="12"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
       <c r="D186" s="12"/>
       <c r="E186" s="6"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
       <c r="D187" s="12"/>
       <c r="E187" s="6"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
       <c r="D188" s="12"/>
       <c r="E188" s="6"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
       <c r="D189" s="12"/>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
       <c r="D190" s="12"/>
       <c r="E190" s="6"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
       <c r="D191" s="12"/>
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
       <c r="D192" s="12"/>
       <c r="E192" s="6"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
       <c r="D193" s="12"/>
       <c r="E193" s="6"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
       <c r="D194" s="12"/>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
       <c r="D195" s="12"/>
       <c r="E195" s="6"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
       <c r="D196" s="12"/>
       <c r="E196" s="6"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
       <c r="D197" s="12"/>
       <c r="E197" s="6"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
       <c r="D198" s="12"/>
       <c r="E198" s="6"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
       <c r="D199" s="12"/>
       <c r="E199" s="6"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="12"/>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
